--- a/final.xlsx
+++ b/final.xlsx
@@ -1,34 +1,177 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D203E-9708-F24C-86F0-50228057D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet11" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet11" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>RAGHUNATH ( AGENCIES ) PVT. LTD.</t>
+  </si>
+  <si>
+    <t>AJANTA SOYA</t>
+  </si>
+  <si>
+    <t>432032</t>
+  </si>
+  <si>
+    <t>TARU TRADE ASSOCIATE </t>
+  </si>
+  <si>
+    <t>B D EDIBLE</t>
+  </si>
+  <si>
+    <t>1114</t>
+  </si>
+  <si>
+    <t>SETH SAWARIYA</t>
+  </si>
+  <si>
+    <t>14676</t>
+  </si>
+  <si>
+    <t>MUKESH &amp; CO</t>
+  </si>
+  <si>
+    <t>8835</t>
+  </si>
+  <si>
+    <t>AAVISHKAR</t>
+  </si>
+  <si>
+    <t>KHODAL TRADING</t>
+  </si>
+  <si>
+    <t>5043</t>
+  </si>
+  <si>
+    <t>S KUMAR</t>
+  </si>
+  <si>
+    <t>LOUIS DREYFUS</t>
+  </si>
+  <si>
+    <t>2117.32</t>
+  </si>
+  <si>
+    <t>HARDIK</t>
+  </si>
+  <si>
+    <t>AADANI WILMAR LTD</t>
+  </si>
+  <si>
+    <t>1931891</t>
+  </si>
+  <si>
+    <t>2316491</t>
+  </si>
+  <si>
+    <t>4179466</t>
+  </si>
+  <si>
+    <t>3005658</t>
+  </si>
+  <si>
+    <t>PV COMMODITIES</t>
+  </si>
+  <si>
+    <t>WIPRO ENTERPRISE</t>
+  </si>
+  <si>
+    <t>3383821</t>
+  </si>
+  <si>
+    <t>NITESH RASTOGI</t>
+  </si>
+  <si>
+    <t>PAMPER OVEN FRESH</t>
+  </si>
+  <si>
+    <t>1298266</t>
+  </si>
+  <si>
+    <t>RAKESH RASTOGI</t>
+  </si>
+  <si>
+    <t>NKKM INDUSTRY</t>
+  </si>
+  <si>
+    <t>2124885</t>
+  </si>
+  <si>
+    <t>ANMOL INDUSTRY</t>
+  </si>
+  <si>
+    <t>4340179</t>
+  </si>
+  <si>
+    <t>PANCH JANIYA FOOD</t>
+  </si>
+  <si>
+    <t>2858691</t>
+  </si>
+  <si>
+    <t>IDate</t>
+  </si>
+  <si>
+    <t>INumber</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,80 +190,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -410,85 +494,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Broker</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Party</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DALAL KANTILAL &amp; CO.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>232</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>DALAL KANTILAL &amp; CO.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DALAL KANTILAL &amp; CO.</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sdfsdf</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>123123</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -497,18 +696,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D203E-9708-F24C-86F0-50228057D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DC30E78-EA52-914E-B004-AF3F6175CA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,25 +16,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet11" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="64">
   <si>
     <t>Broker</t>
   </si>
@@ -45,121 +32,196 @@
     <t>Amount</t>
   </si>
   <si>
-    <t>RAGHUNATH ( AGENCIES ) PVT. LTD.</t>
-  </si>
-  <si>
-    <t>AJANTA SOYA</t>
-  </si>
-  <si>
-    <t>432032</t>
+    <t>IDate</t>
+  </si>
+  <si>
+    <t>INumber</t>
+  </si>
+  <si>
+    <t>AAVISHKAR</t>
+  </si>
+  <si>
+    <t>KHODAL TRADING</t>
+  </si>
+  <si>
+    <t>5043</t>
+  </si>
+  <si>
+    <t>S KUMAR</t>
+  </si>
+  <si>
+    <t>LOUIS DREYFUS</t>
+  </si>
+  <si>
+    <t>2117.32</t>
+  </si>
+  <si>
+    <t>HARDIK</t>
+  </si>
+  <si>
+    <t>1931891</t>
+  </si>
+  <si>
+    <t>2316491</t>
+  </si>
+  <si>
+    <t>4179466</t>
+  </si>
+  <si>
+    <t>3005658</t>
+  </si>
+  <si>
+    <t>PV COMMODITIES</t>
+  </si>
+  <si>
+    <t>WIPRO ENTERPRISE</t>
+  </si>
+  <si>
+    <t>3383821</t>
+  </si>
+  <si>
+    <t>NITESH RASTOGI</t>
+  </si>
+  <si>
+    <t>PAMPER OVEN FRESH</t>
+  </si>
+  <si>
+    <t>1298266</t>
+  </si>
+  <si>
+    <t>RAKESH RASTOGI</t>
+  </si>
+  <si>
+    <t>NKKM INDUSTRY</t>
+  </si>
+  <si>
+    <t>2124885</t>
+  </si>
+  <si>
+    <t>ANMOL INDUSTRY</t>
+  </si>
+  <si>
+    <t>4340179</t>
+  </si>
+  <si>
+    <t>PANCH JANIYA FOOD</t>
+  </si>
+  <si>
+    <t>2858691</t>
+  </si>
+  <si>
+    <t>MRIDUL</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>345343</t>
+  </si>
+  <si>
+    <t>DALAL KANTILAL &amp; CO.</t>
+  </si>
+  <si>
+    <t>COFCO</t>
+  </si>
+  <si>
+    <t>4658136</t>
+  </si>
+  <si>
+    <t>3905</t>
+  </si>
+  <si>
+    <t>4819500</t>
+  </si>
+  <si>
+    <t>3906</t>
+  </si>
+  <si>
+    <t>ARIHANT OIL CORP</t>
+  </si>
+  <si>
+    <t>7219</t>
+  </si>
+  <si>
+    <t>3544</t>
+  </si>
+  <si>
+    <t>KANTILAL RATILAL</t>
+  </si>
+  <si>
+    <t>4760005</t>
+  </si>
+  <si>
+    <t>3907</t>
+  </si>
+  <si>
+    <t>4798646</t>
+  </si>
+  <si>
+    <t>3908</t>
+  </si>
+  <si>
+    <t>GOBIND</t>
+  </si>
+  <si>
+    <t>SPIN AGRI</t>
+  </si>
+  <si>
+    <t>9759</t>
+  </si>
+  <si>
+    <t>3770</t>
   </si>
   <si>
     <t>TARU TRADE ASSOCIATE </t>
   </si>
   <si>
-    <t>B D EDIBLE</t>
-  </si>
-  <si>
-    <t>1114</t>
-  </si>
-  <si>
-    <t>SETH SAWARIYA</t>
+    <t>SETH SAAVARIYA</t>
   </si>
   <si>
     <t>14676</t>
   </si>
   <si>
+    <t>3813</t>
+  </si>
+  <si>
     <t>MUKESH &amp; CO</t>
   </si>
   <si>
     <t>8835</t>
   </si>
   <si>
-    <t>AAVISHKAR</t>
-  </si>
-  <si>
-    <t>KHODAL TRADING</t>
-  </si>
-  <si>
-    <t>5043</t>
-  </si>
-  <si>
-    <t>S KUMAR</t>
-  </si>
-  <si>
-    <t>LOUIS DREYFUS</t>
-  </si>
-  <si>
-    <t>2117.32</t>
-  </si>
-  <si>
-    <t>HARDIK</t>
-  </si>
-  <si>
-    <t>AADANI WILMAR LTD</t>
-  </si>
-  <si>
-    <t>1931891</t>
-  </si>
-  <si>
-    <t>2316491</t>
-  </si>
-  <si>
-    <t>4179466</t>
-  </si>
-  <si>
-    <t>3005658</t>
-  </si>
-  <si>
-    <t>PV COMMODITIES</t>
-  </si>
-  <si>
-    <t>WIPRO ENTERPRISE</t>
-  </si>
-  <si>
-    <t>3383821</t>
-  </si>
-  <si>
-    <t>NITESH RASTOGI</t>
-  </si>
-  <si>
-    <t>PAMPER OVEN FRESH</t>
-  </si>
-  <si>
-    <t>1298266</t>
-  </si>
-  <si>
-    <t>RAKESH RASTOGI</t>
-  </si>
-  <si>
-    <t>NKKM INDUSTRY</t>
-  </si>
-  <si>
-    <t>2124885</t>
-  </si>
-  <si>
-    <t>ANMOL INDUSTRY</t>
-  </si>
-  <si>
-    <t>4340179</t>
-  </si>
-  <si>
-    <t>PANCH JANIYA FOOD</t>
-  </si>
-  <si>
-    <t>2858691</t>
-  </si>
-  <si>
-    <t>IDate</t>
-  </si>
-  <si>
-    <t>INumber</t>
+    <t>3818</t>
+  </si>
+  <si>
+    <t>JOCIL</t>
+  </si>
+  <si>
+    <t>2615210</t>
+  </si>
+  <si>
+    <t>3746</t>
+  </si>
+  <si>
+    <t>2862727</t>
+  </si>
+  <si>
+    <t>3748</t>
+  </si>
+  <si>
+    <t>2622</t>
+  </si>
+  <si>
+    <t>ADANI WILMAR LTD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,8 +251,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,17 +558,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -519,175 +583,375 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="1">
+        <v>45643</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1">
+        <v>45633</v>
+      </c>
+      <c r="E3">
+        <v>3804</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>45633</v>
+      </c>
+      <c r="E4">
+        <v>3805</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D5" s="1">
+        <v>45633</v>
+      </c>
+      <c r="E5">
+        <v>3806</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
+      <c r="D6" s="1">
+        <v>45633</v>
+      </c>
+      <c r="E6">
+        <v>3807</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="D7" s="1">
+        <v>45624</v>
+      </c>
+      <c r="E7">
+        <v>2655</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="D8" s="1">
+        <v>45639</v>
+      </c>
+      <c r="E8">
+        <v>2782</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <v>45635</v>
+      </c>
+      <c r="E9">
+        <v>2761</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>31</v>
+      </c>
+      <c r="D10" s="1">
+        <v>45642</v>
+      </c>
+      <c r="E10">
+        <v>3094</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="D11" s="1">
+        <v>45640</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>36</v>
+      </c>
+      <c r="D12" s="1">
+        <v>45640</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="D13" s="1">
+        <v>45616</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="D14" s="1">
+        <v>45640</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="D15" s="1">
+        <v>45640</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>48</v>
+      </c>
+      <c r="D16" s="1">
+        <v>45631</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="1">
+        <v>45633</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="1">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="1">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="1">
+        <v>45633</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1">
+        <v>45629</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="1">
+        <v>45629</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1">
+        <v>45622</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/final.xlsx
+++ b/final.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" zoomScale="125" workbookViewId="0">
       <selection activeCell="E40" sqref="E40"/>
@@ -2326,6 +2326,42 @@
         </is>
       </c>
     </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MAHENDRA KEJERIWAL</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RB FOOD</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1591157</t>
+        </is>
+      </c>
+      <c r="E55" s="4" t="n">
+        <v>45638</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2776</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>NODKOL</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47D0CD8-0EDF-A844-9474-37F6745072E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4072D128-2195-054A-86DD-EDF826D73EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$105</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="206">
   <si>
     <t>ID</t>
   </si>
@@ -292,9 +292,6 @@
     <t>RAJENDRA RASTOGI</t>
   </si>
   <si>
-    <t>RAHUL ENT</t>
-  </si>
-  <si>
     <t>1521450</t>
   </si>
   <si>
@@ -400,9 +397,6 @@
     <t>1098</t>
   </si>
   <si>
-    <t>LOKNATH COM TRADE</t>
-  </si>
-  <si>
     <t>1471050</t>
   </si>
   <si>
@@ -538,9 +532,6 @@
     <t>JOCIL LTD</t>
   </si>
   <si>
-    <t>2024-12-05T00:00:00.000</t>
-  </si>
-  <si>
     <t>2024-12-07T00:00:00.000</t>
   </si>
   <si>
@@ -556,18 +547,9 @@
     <t>OZONE PROCONE</t>
   </si>
   <si>
-    <t>2024-12-20T00:00:00.000</t>
-  </si>
-  <si>
-    <t>2024-12-14T00:00:00.000</t>
-  </si>
-  <si>
     <t>PANJA BROTHERS</t>
   </si>
   <si>
-    <t>2024-12-18T00:00:00.000</t>
-  </si>
-  <si>
     <t>KARMA AGRO COMMODITIES</t>
   </si>
   <si>
@@ -580,9 +562,6 @@
     <t xml:space="preserve">DURGA TRADING </t>
   </si>
   <si>
-    <t>2024-12-19T00:00:00.000</t>
-  </si>
-  <si>
     <t>R K TRADER</t>
   </si>
   <si>
@@ -592,9 +571,6 @@
     <t>PAMELA STORES</t>
   </si>
   <si>
-    <t>2024-12-12T00:00:00.000</t>
-  </si>
-  <si>
     <t>GANESH BHANDER</t>
   </si>
   <si>
@@ -644,6 +620,27 @@
   </si>
   <si>
     <t>LALCHAND TIKAM CH</t>
+  </si>
+  <si>
+    <t>BABALI</t>
+  </si>
+  <si>
+    <t>KANHAYIALAL RAMAWTAR</t>
+  </si>
+  <si>
+    <t>ADM AGRO</t>
+  </si>
+  <si>
+    <t>MOTHER DIARY</t>
+  </si>
+  <si>
+    <t>3F INDUSTRIES</t>
+  </si>
+  <si>
+    <t>DURGA SYNDICATE</t>
+  </si>
+  <si>
+    <t>LOKENATH COMTRADE</t>
   </si>
 </sst>
 </file>
@@ -688,14 +685,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1001,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1012,8 +1007,9 @@
     <col min="1" max="1" width="8.83203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -1043,7 +1039,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1066,7 +1062,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -1092,7 +1088,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -1118,7 +1114,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -1144,7 +1140,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -1170,7 +1166,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -1196,7 +1192,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -1215,14 +1211,14 @@
         <v>2782</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -1241,14 +1237,14 @@
         <v>2761</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -1274,7 +1270,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -1295,9 +1291,12 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -1318,9 +1317,12 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -1346,7 +1348,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -1367,9 +1369,12 @@
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -1390,9 +1395,12 @@
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -1411,14 +1419,14 @@
         <v>47</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -1437,14 +1445,14 @@
         <v>50</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -1467,7 +1475,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -1490,7 +1498,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -1516,7 +1524,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -1542,7 +1550,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -1568,7 +1576,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1594,7 +1602,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -1620,7 +1628,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -1646,7 +1654,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -1672,7 +1680,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -1698,7 +1706,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -1724,7 +1732,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -1743,14 +1751,14 @@
         <v>85</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -1776,144 +1784,144 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
       </c>
       <c r="C31" t="s">
+        <v>191</v>
+      </c>
+      <c r="D31" t="s">
         <v>89</v>
-      </c>
-      <c r="D31" t="s">
-        <v>90</v>
       </c>
       <c r="E31" s="1">
         <v>45639</v>
       </c>
       <c r="F31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>92</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>93</v>
-      </c>
-      <c r="D32" t="s">
-        <v>94</v>
       </c>
       <c r="E32" s="1">
         <v>45628</v>
       </c>
       <c r="F32" t="s">
+        <v>94</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" t="s">
         <v>95</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>97</v>
       </c>
       <c r="E33" s="1">
         <v>45636</v>
       </c>
       <c r="F33" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
       </c>
       <c r="E34" s="1">
         <v>45617</v>
       </c>
       <c r="F34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
       </c>
       <c r="E35" s="1">
         <v>45632</v>
       </c>
       <c r="F35" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>105</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>107</v>
       </c>
       <c r="D36">
         <v>598100</v>
@@ -1922,267 +1930,267 @@
         <v>45632</v>
       </c>
       <c r="F36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>109</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
       </c>
       <c r="E37" s="1">
         <v>45632</v>
       </c>
       <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>112</v>
-      </c>
-      <c r="D38" t="s">
-        <v>113</v>
       </c>
       <c r="E38" s="1">
         <v>45611</v>
       </c>
       <c r="F38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
       </c>
       <c r="E39" s="1">
         <v>45642</v>
       </c>
       <c r="F39" t="s">
+        <v>116</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>106</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>118</v>
-      </c>
-      <c r="D40" t="s">
-        <v>119</v>
       </c>
       <c r="E40" s="1">
         <v>45637</v>
       </c>
       <c r="F40" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>120</v>
       </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>121</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>122</v>
-      </c>
-      <c r="D41" t="s">
-        <v>123</v>
       </c>
       <c r="E41" s="1">
         <v>45626</v>
       </c>
       <c r="F41" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>205</v>
+      </c>
+      <c r="D42" t="s">
         <v>124</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" t="s">
-        <v>126</v>
       </c>
       <c r="E42" s="1">
         <v>45642</v>
       </c>
       <c r="F42" t="s">
+        <v>125</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" t="s">
         <v>127</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>128</v>
-      </c>
-      <c r="C43" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" t="s">
-        <v>130</v>
       </c>
       <c r="E43" s="1">
         <v>45635</v>
       </c>
       <c r="F43" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
         <v>131</v>
       </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>132</v>
-      </c>
-      <c r="C44" t="s">
-        <v>133</v>
-      </c>
-      <c r="D44" t="s">
-        <v>134</v>
       </c>
       <c r="E44" s="1">
         <v>45638</v>
       </c>
       <c r="F44" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" t="s">
         <v>135</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-      <c r="H44" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" t="s">
-        <v>137</v>
       </c>
       <c r="E45" s="1">
         <v>45631</v>
       </c>
       <c r="F45" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" t="s">
         <v>138</v>
       </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>139</v>
-      </c>
-      <c r="C46" t="s">
-        <v>140</v>
-      </c>
-      <c r="D46" t="s">
-        <v>141</v>
       </c>
       <c r="E46" s="1">
         <v>45632</v>
       </c>
       <c r="F46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2192,49 +2200,49 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E47" s="1">
         <v>45635</v>
       </c>
       <c r="F47" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
         <v>144</v>
       </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>145</v>
-      </c>
-      <c r="C48" t="s">
-        <v>146</v>
-      </c>
-      <c r="D48" t="s">
-        <v>147</v>
       </c>
       <c r="E48" s="1">
         <v>45633</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2244,179 +2252,179 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E49" s="1">
         <v>45636</v>
       </c>
       <c r="F49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" t="s">
         <v>150</v>
       </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>151</v>
-      </c>
-      <c r="C50" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" t="s">
-        <v>153</v>
       </c>
       <c r="E50" s="1">
         <v>45628</v>
       </c>
       <c r="F50" t="s">
+        <v>152</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C51" t="s">
         <v>154</v>
       </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="D51" t="s">
         <v>155</v>
-      </c>
-      <c r="C51" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" t="s">
-        <v>157</v>
       </c>
       <c r="E51" s="1">
         <v>45642</v>
       </c>
       <c r="F51" t="s">
+        <v>156</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" t="s">
         <v>158</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>155</v>
-      </c>
-      <c r="C52" t="s">
-        <v>159</v>
-      </c>
-      <c r="D52" t="s">
-        <v>160</v>
       </c>
       <c r="E52" s="1">
         <v>45642</v>
       </c>
       <c r="F52" t="s">
+        <v>159</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" t="s">
+        <v>160</v>
+      </c>
+      <c r="D53" t="s">
         <v>161</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" t="s">
-        <v>162</v>
-      </c>
-      <c r="D53" t="s">
-        <v>163</v>
       </c>
       <c r="E53" s="1">
         <v>45530</v>
       </c>
       <c r="F53" t="s">
+        <v>162</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" t="s">
         <v>164</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>155</v>
-      </c>
-      <c r="C54" t="s">
-        <v>165</v>
-      </c>
-      <c r="D54" t="s">
-        <v>166</v>
       </c>
       <c r="E54" s="1">
         <v>45608</v>
       </c>
       <c r="F54" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+      <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C55" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="4">
+        <v>166</v>
+      </c>
+      <c r="D55">
         <v>1591157</v>
       </c>
       <c r="E55" s="1">
         <v>45638</v>
       </c>
       <c r="F55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2426,14 +2434,14 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+      <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56">
         <v>2591327</v>
@@ -2445,21 +2453,21 @@
         <v>3779</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+      <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D57">
         <v>2203768</v>
@@ -2478,14 +2486,14 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D58">
         <v>2096294</v>
@@ -2504,14 +2512,14 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D59">
         <v>2614125</v>
@@ -2530,14 +2538,14 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+      <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D60">
         <v>2965859</v>
@@ -2556,14 +2564,14 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D61">
         <v>200</v>
@@ -2582,14 +2590,14 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C62" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D62">
         <v>1899859</v>
@@ -2608,14 +2616,14 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+      <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C63" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D63">
         <v>806998</v>
@@ -2660,14 +2668,14 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+      <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D65">
         <v>1328565</v>
@@ -2686,14 +2694,14 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+      <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>182</v>
+        <v>91</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="D66">
         <v>1274438</v>
@@ -2705,21 +2713,21 @@
         <v>2805</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+      <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>91</v>
+      </c>
+      <c r="C67" t="s">
         <v>92</v>
-      </c>
-      <c r="C67" t="s">
-        <v>93</v>
       </c>
       <c r="D67">
         <v>1382913</v>
@@ -2738,14 +2746,14 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+      <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D68">
         <v>571725</v>
@@ -2764,14 +2772,14 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+      <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C69" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="D69">
         <v>1659000</v>
@@ -2790,14 +2798,14 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+      <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D70">
         <v>2978514</v>
@@ -2809,33 +2817,33 @@
         <v>1154</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+      <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D71">
         <v>750002</v>
       </c>
-      <c r="E71" t="s">
-        <v>171</v>
+      <c r="E71" s="1">
+        <v>45631</v>
       </c>
       <c r="F71">
         <v>1116</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" t="s">
         <v>80</v>
@@ -2846,16 +2854,16 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C72" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D72">
         <v>20</v>
       </c>
-      <c r="E72" t="s">
-        <v>189</v>
+      <c r="E72" s="1">
+        <v>45638</v>
       </c>
       <c r="F72">
         <v>1148</v>
@@ -2868,20 +2876,20 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+      <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C73" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D73">
         <v>1125002</v>
       </c>
-      <c r="E73" t="s">
-        <v>180</v>
+      <c r="E73" s="1">
+        <v>45644</v>
       </c>
       <c r="F73">
         <v>1158</v>
@@ -2894,20 +2902,20 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+      <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C74" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D74">
         <v>1125002</v>
       </c>
-      <c r="E74" t="s">
-        <v>185</v>
+      <c r="E74" s="1">
+        <v>45645</v>
       </c>
       <c r="F74">
         <v>1161</v>
@@ -2920,20 +2928,20 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+      <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C75" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D75">
         <v>219975</v>
       </c>
-      <c r="E75" t="s">
-        <v>180</v>
+      <c r="E75" s="1">
+        <v>45644</v>
       </c>
       <c r="F75">
         <v>1157</v>
@@ -2946,20 +2954,20 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+      <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D76">
         <v>439950</v>
       </c>
-      <c r="E76" t="s">
-        <v>180</v>
+      <c r="E76" s="1">
+        <v>45644</v>
       </c>
       <c r="F76">
         <v>1156</v>
@@ -2972,20 +2980,20 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+      <c r="A77" s="2">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D77">
         <v>1125002</v>
       </c>
-      <c r="E77" t="s">
-        <v>180</v>
+      <c r="E77" s="1">
+        <v>45644</v>
       </c>
       <c r="F77">
         <v>1160</v>
@@ -2998,7 +3006,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+      <c r="A78" s="2">
         <v>76</v>
       </c>
       <c r="B78" t="s">
@@ -3011,20 +3019,20 @@
         <v>3168678</v>
       </c>
       <c r="E78" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F78">
         <v>3828</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79" s="2">
         <v>77</v>
       </c>
       <c r="B79" t="s">
@@ -3037,7 +3045,7 @@
         <v>3312107</v>
       </c>
       <c r="E79" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="F79">
         <v>3830</v>
@@ -3057,39 +3065,39 @@
         <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D80">
         <v>2191826</v>
       </c>
       <c r="E80" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F80">
         <v>3796</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H80" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D81">
         <v>106790</v>
       </c>
       <c r="E81" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F81">
         <v>3817</v>
@@ -3102,14 +3110,14 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D82">
         <v>9161612.4399999995</v>
@@ -3121,27 +3129,27 @@
         <v>3986</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83" t="s">
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D83">
         <v>1337291</v>
       </c>
       <c r="E83" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F83">
         <v>2802</v>
@@ -3154,40 +3162,40 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D84">
         <v>1892374</v>
       </c>
       <c r="E84" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F84">
         <v>2798</v>
       </c>
       <c r="G84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H84" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85" t="s">
         <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D85">
         <v>4246864</v>
@@ -3206,14 +3214,14 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+      <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" t="s">
         <v>22</v>
       </c>
       <c r="C86" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D86">
         <v>1421683</v>
@@ -3225,21 +3233,21 @@
         <v>2768</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+      <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87" t="s">
         <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D87">
         <v>1413014</v>
@@ -3251,7 +3259,7 @@
         <v>2772</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H87" t="s">
         <v>21</v>
@@ -3265,7 +3273,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D88">
         <v>4217634</v>
@@ -3277,21 +3285,21 @@
         <v>3998</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89" t="s">
         <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D89">
         <v>3691</v>
@@ -3303,53 +3311,53 @@
         <v>3952</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H89" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D90">
         <v>3313737</v>
       </c>
-      <c r="E90" t="s">
-        <v>185</v>
+      <c r="E90" s="1">
+        <v>45645</v>
       </c>
       <c r="F90">
         <v>2819</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D91">
         <v>1301496</v>
       </c>
-      <c r="E91" t="s">
-        <v>177</v>
+      <c r="E91" s="1">
+        <v>45646</v>
       </c>
       <c r="F91">
         <v>2823</v>
@@ -3362,28 +3370,366 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C92" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D92">
         <v>2826663</v>
       </c>
-      <c r="E92" t="s">
-        <v>178</v>
+      <c r="E92" s="1">
+        <v>45640</v>
       </c>
       <c r="F92">
         <v>2790</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93">
+        <v>225760</v>
+      </c>
+      <c r="E93" s="1">
+        <v>45646</v>
+      </c>
+      <c r="F93">
+        <v>2828</v>
+      </c>
+      <c r="G93">
+        <v>0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>137</v>
+      </c>
+      <c r="C94" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94">
+        <v>2978514</v>
+      </c>
+      <c r="E94" s="1">
+        <v>45642</v>
+      </c>
+      <c r="F94">
+        <v>1154</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95">
+        <v>4189059</v>
+      </c>
+      <c r="E95" s="1">
+        <v>45648</v>
+      </c>
+      <c r="F95">
+        <v>4017</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>143</v>
+      </c>
+      <c r="C96" t="s">
+        <v>202</v>
+      </c>
+      <c r="D96">
+        <v>2884770</v>
+      </c>
+      <c r="E96" s="1">
+        <v>45645</v>
+      </c>
+      <c r="F96">
+        <v>2820</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>143</v>
+      </c>
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97">
+        <v>3013826</v>
+      </c>
+      <c r="E97" s="1">
+        <v>45646</v>
+      </c>
+      <c r="F97">
+        <v>2821</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>143</v>
+      </c>
+      <c r="C98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D98">
+        <v>3137820</v>
+      </c>
+      <c r="E98" s="1">
+        <v>45647</v>
+      </c>
+      <c r="F98">
+        <v>2830</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" t="s">
+        <v>202</v>
+      </c>
+      <c r="D99">
+        <v>3602167</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45647</v>
+      </c>
+      <c r="F99">
+        <v>2831</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>56</v>
+      </c>
+      <c r="C100" t="s">
+        <v>203</v>
+      </c>
+      <c r="D100">
+        <v>3203311</v>
+      </c>
+      <c r="E100" s="1">
+        <v>45640</v>
+      </c>
+      <c r="F100">
+        <v>3903</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C101" t="s">
+        <v>203</v>
+      </c>
+      <c r="D101">
+        <v>1865061</v>
+      </c>
+      <c r="E101" s="1">
+        <v>45640</v>
+      </c>
+      <c r="F101">
+        <v>3904</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>188</v>
+      </c>
+      <c r="C102" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102">
+        <v>3417933.35</v>
+      </c>
+      <c r="E102" s="1">
+        <v>45646</v>
+      </c>
+      <c r="F102">
+        <v>3986</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>88</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103">
+        <v>1214514</v>
+      </c>
+      <c r="E103" s="1">
+        <v>45648</v>
+      </c>
+      <c r="F103">
+        <v>2837</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104">
+        <v>2642304</v>
+      </c>
+      <c r="E104" s="1">
+        <v>45648</v>
+      </c>
+      <c r="F104">
+        <v>2841</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105">
+        <v>1926663</v>
+      </c>
+      <c r="E105" s="1">
+        <v>45640</v>
+      </c>
+      <c r="F105">
+        <v>2790</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105" t="s">
         <v>21</v>
       </c>
     </row>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4072D128-2195-054A-86DD-EDF826D73EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668B80C-BB8D-5E48-A099-4BE390372154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
@@ -331,9 +331,6 @@
     <t>1079</t>
   </si>
   <si>
-    <t>JD STORE</t>
-  </si>
-  <si>
     <t>90</t>
   </si>
   <si>
@@ -532,9 +529,6 @@
     <t>JOCIL LTD</t>
   </si>
   <si>
-    <t>2024-12-07T00:00:00.000</t>
-  </si>
-  <si>
     <t>SHREE RAM ENTERPRISE</t>
   </si>
   <si>
@@ -556,9 +550,6 @@
     <t>SHREE BASUKINATH OIL MILL</t>
   </si>
   <si>
-    <t>2024-12-16T00:00:00.000</t>
-  </si>
-  <si>
     <t xml:space="preserve">DURGA TRADING </t>
   </si>
   <si>
@@ -583,12 +574,6 @@
     <t>KAMAL TRADING CO</t>
   </si>
   <si>
-    <t>2024-12-09T00:00:00.000</t>
-  </si>
-  <si>
-    <t>2024-12-06T00:00:00.000</t>
-  </si>
-  <si>
     <t>RAGHUNATH ( AGENCIES ) PVT. LTD.</t>
   </si>
   <si>
@@ -641,6 +626,9 @@
   </si>
   <si>
     <t>LOKENATH COMTRADE</t>
+  </si>
+  <si>
+    <t>GD STORE</t>
   </si>
 </sst>
 </file>
@@ -998,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1791,7 +1779,7 @@
         <v>88</v>
       </c>
       <c r="C31" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s">
         <v>89</v>
@@ -1895,16 +1883,16 @@
         <v>98</v>
       </c>
       <c r="C35" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" t="s">
         <v>102</v>
-      </c>
-      <c r="D35" t="s">
-        <v>103</v>
       </c>
       <c r="E35" s="1">
         <v>45632</v>
       </c>
       <c r="F35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -1918,10 +1906,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
-      </c>
-      <c r="C36" t="s">
-        <v>106</v>
       </c>
       <c r="D36">
         <v>598100</v>
@@ -1930,7 +1918,7 @@
         <v>45632</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1944,19 +1932,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" t="s">
         <v>108</v>
-      </c>
-      <c r="D37" t="s">
-        <v>109</v>
       </c>
       <c r="E37" s="1">
         <v>45632</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -1970,19 +1958,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C38" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" t="s">
         <v>111</v>
-      </c>
-      <c r="D38" t="s">
-        <v>112</v>
       </c>
       <c r="E38" s="1">
         <v>45611</v>
       </c>
       <c r="F38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1996,19 +1984,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" t="s">
         <v>114</v>
-      </c>
-      <c r="D39" t="s">
-        <v>115</v>
       </c>
       <c r="E39" s="1">
         <v>45642</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -2022,19 +2010,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C40" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" t="s">
         <v>117</v>
-      </c>
-      <c r="D40" t="s">
-        <v>118</v>
       </c>
       <c r="E40" s="1">
         <v>45637</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -2048,19 +2036,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>121</v>
-      </c>
-      <c r="D41" t="s">
-        <v>122</v>
       </c>
       <c r="E41" s="1">
         <v>45626</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2074,19 +2062,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E42" s="1">
         <v>45642</v>
       </c>
       <c r="F42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2100,19 +2088,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>127</v>
-      </c>
-      <c r="D43" t="s">
-        <v>128</v>
       </c>
       <c r="E43" s="1">
         <v>45635</v>
       </c>
       <c r="F43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -2126,19 +2114,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" t="s">
         <v>130</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>131</v>
-      </c>
-      <c r="D44" t="s">
-        <v>132</v>
       </c>
       <c r="E44" s="1">
         <v>45638</v>
       </c>
       <c r="F44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2152,19 +2140,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
         <v>134</v>
-      </c>
-      <c r="D45" t="s">
-        <v>135</v>
       </c>
       <c r="E45" s="1">
         <v>45631</v>
       </c>
       <c r="F45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2178,19 +2166,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
         <v>137</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>138</v>
-      </c>
-      <c r="D46" t="s">
-        <v>139</v>
       </c>
       <c r="E46" s="1">
         <v>45632</v>
       </c>
       <c r="F46" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -2204,19 +2192,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
         <v>137</v>
       </c>
-      <c r="C47" t="s">
-        <v>138</v>
-      </c>
       <c r="D47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1">
         <v>45635</v>
       </c>
       <c r="F47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -2230,19 +2218,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" t="s">
         <v>143</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>144</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
       </c>
       <c r="E48" s="1">
         <v>45633</v>
       </c>
       <c r="F48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -2256,19 +2244,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" s="1">
         <v>45636</v>
       </c>
       <c r="F49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -2282,19 +2270,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" t="s">
         <v>149</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>150</v>
-      </c>
-      <c r="D50" t="s">
-        <v>151</v>
       </c>
       <c r="E50" s="1">
         <v>45628</v>
       </c>
       <c r="F50" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -2308,19 +2296,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" t="s">
         <v>153</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>154</v>
-      </c>
-      <c r="D51" t="s">
-        <v>155</v>
       </c>
       <c r="E51" s="1">
         <v>45642</v>
       </c>
       <c r="F51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -2334,19 +2322,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52" t="s">
         <v>157</v>
-      </c>
-      <c r="D52" t="s">
-        <v>158</v>
       </c>
       <c r="E52" s="1">
         <v>45642</v>
       </c>
       <c r="F52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -2360,19 +2348,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C53" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53" t="s">
         <v>160</v>
-      </c>
-      <c r="D53" t="s">
-        <v>161</v>
       </c>
       <c r="E53" s="1">
         <v>45530</v>
       </c>
       <c r="F53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2386,19 +2374,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54" t="s">
         <v>163</v>
-      </c>
-      <c r="D54" t="s">
-        <v>164</v>
       </c>
       <c r="E54" s="1">
         <v>45608</v>
       </c>
       <c r="F54" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -2412,10 +2400,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D55">
         <v>1591157</v>
@@ -2424,7 +2412,7 @@
         <v>45638</v>
       </c>
       <c r="F55" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G55">
         <v>1</v>
@@ -2441,7 +2429,7 @@
         <v>71</v>
       </c>
       <c r="C56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56">
         <v>2591327</v>
@@ -2467,7 +2455,7 @@
         <v>71</v>
       </c>
       <c r="C57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D57">
         <v>2203768</v>
@@ -2493,7 +2481,7 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D58">
         <v>2096294</v>
@@ -2519,7 +2507,7 @@
         <v>71</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D59">
         <v>2614125</v>
@@ -2545,7 +2533,7 @@
         <v>71</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60">
         <v>2965859</v>
@@ -2568,10 +2556,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D61">
         <v>200</v>
@@ -2594,10 +2582,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D62">
         <v>1899859</v>
@@ -2620,10 +2608,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C63" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D63">
         <v>806998</v>
@@ -2672,10 +2660,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C65" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D65">
         <v>1328565</v>
@@ -2701,7 +2689,7 @@
         <v>91</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D66">
         <v>1274438</v>
@@ -2753,7 +2741,7 @@
         <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D68">
         <v>571725</v>
@@ -2776,10 +2764,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C69" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D69">
         <v>1659000</v>
@@ -2802,10 +2790,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D70">
         <v>2978514</v>
@@ -2828,10 +2816,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D71">
         <v>750002</v>
@@ -2854,10 +2842,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>129</v>
+      </c>
+      <c r="C72" t="s">
         <v>130</v>
-      </c>
-      <c r="C72" t="s">
-        <v>131</v>
       </c>
       <c r="D72">
         <v>20</v>
@@ -2880,10 +2868,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C73" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D73">
         <v>1125002</v>
@@ -2906,10 +2894,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C74" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D74">
         <v>1125002</v>
@@ -2932,10 +2920,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D75">
         <v>219975</v>
@@ -2958,10 +2946,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C76" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D76">
         <v>439950</v>
@@ -2984,10 +2972,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D77">
         <v>1125002</v>
@@ -3018,8 +3006,8 @@
       <c r="D78">
         <v>3168678</v>
       </c>
-      <c r="E78" t="s">
-        <v>186</v>
+      <c r="E78" s="1">
+        <v>45635</v>
       </c>
       <c r="F78">
         <v>3828</v>
@@ -3044,8 +3032,8 @@
       <c r="D79">
         <v>3312107</v>
       </c>
-      <c r="E79" t="s">
-        <v>186</v>
+      <c r="E79" s="1">
+        <v>45635</v>
       </c>
       <c r="F79">
         <v>3830</v>
@@ -3065,13 +3053,13 @@
         <v>56</v>
       </c>
       <c r="C80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D80">
         <v>2191826</v>
       </c>
-      <c r="E80" t="s">
-        <v>187</v>
+      <c r="E80" s="1">
+        <v>45632</v>
       </c>
       <c r="F80">
         <v>3796</v>
@@ -3091,13 +3079,13 @@
         <v>56</v>
       </c>
       <c r="C81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D81">
         <v>106790</v>
       </c>
-      <c r="E81" t="s">
-        <v>169</v>
+      <c r="E81" s="1">
+        <v>45633</v>
       </c>
       <c r="F81">
         <v>3817</v>
@@ -3114,10 +3102,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D82">
         <v>9161612.4399999995</v>
@@ -3143,13 +3131,13 @@
         <v>88</v>
       </c>
       <c r="C83" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D83">
         <v>1337291</v>
       </c>
-      <c r="E83" t="s">
-        <v>177</v>
+      <c r="E83" s="1">
+        <v>45642</v>
       </c>
       <c r="F83">
         <v>2802</v>
@@ -3169,13 +3157,13 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D84">
         <v>1892374</v>
       </c>
-      <c r="E84" t="s">
-        <v>177</v>
+      <c r="E84" s="1">
+        <v>45642</v>
       </c>
       <c r="F84">
         <v>2798</v>
@@ -3195,7 +3183,7 @@
         <v>22</v>
       </c>
       <c r="C85" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D85">
         <v>4246864</v>
@@ -3221,7 +3209,7 @@
         <v>22</v>
       </c>
       <c r="C86" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D86">
         <v>1421683</v>
@@ -3247,7 +3235,7 @@
         <v>22</v>
       </c>
       <c r="C87" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D87">
         <v>1413014</v>
@@ -3273,7 +3261,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D88">
         <v>4217634</v>
@@ -3299,7 +3287,7 @@
         <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D89">
         <v>3691</v>
@@ -3322,10 +3310,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D90">
         <v>3313737</v>
@@ -3348,10 +3336,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D91">
         <v>1301496</v>
@@ -3374,10 +3362,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D92">
         <v>2826663</v>
@@ -3400,10 +3388,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D93">
         <v>225760</v>
@@ -3426,10 +3414,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D94">
         <v>2978514</v>
@@ -3455,7 +3443,7 @@
         <v>39</v>
       </c>
       <c r="C95" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D95">
         <v>4189059</v>
@@ -3478,10 +3466,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D96">
         <v>2884770</v>
@@ -3504,10 +3492,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D97">
         <v>3013826</v>
@@ -3530,10 +3518,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D98">
         <v>3137820</v>
@@ -3556,10 +3544,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C99" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D99">
         <v>3602167</v>
@@ -3585,7 +3573,7 @@
         <v>56</v>
       </c>
       <c r="C100" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D100">
         <v>3203311</v>
@@ -3611,7 +3599,7 @@
         <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D101">
         <v>1865061</v>
@@ -3634,10 +3622,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C102" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D102">
         <v>3417933.35</v>
@@ -3663,7 +3651,7 @@
         <v>88</v>
       </c>
       <c r="C103" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D103">
         <v>1214514</v>
@@ -3686,10 +3674,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C104" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D104">
         <v>2642304</v>
@@ -3712,10 +3700,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C105" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D105">
         <v>1926663</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -2,28 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1668B80C-BB8D-5E48-A099-4BE390372154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{347C1320-4F68-D649-9E6A-04E71350CE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15720" xr2:uid="{67813D4E-E05E-934C-89DB-5B29DB79C298}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="final (1)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$105</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="127">
   <si>
     <t>ID</t>
   </si>
@@ -55,9 +52,6 @@
     <t>LOUIS DREYFUS</t>
   </si>
   <si>
-    <t>2117.32</t>
-  </si>
-  <si>
     <t>NODPL</t>
   </si>
   <si>
@@ -67,27 +61,12 @@
     <t>ADANI WILMAR LTD</t>
   </si>
   <si>
-    <t>1931891</t>
-  </si>
-  <si>
-    <t>2316491</t>
-  </si>
-  <si>
-    <t>4179466</t>
-  </si>
-  <si>
-    <t>3005658</t>
-  </si>
-  <si>
     <t>NITESH RASTOGI</t>
   </si>
   <si>
     <t>PAMPER OVEN FRESH</t>
   </si>
   <si>
-    <t>1298266</t>
-  </si>
-  <si>
     <t>NODKOL</t>
   </si>
   <si>
@@ -97,205 +76,82 @@
     <t>NKKM INDUSTRY</t>
   </si>
   <si>
-    <t>2124885</t>
-  </si>
-  <si>
     <t>ANMOL INDUSTRY</t>
   </si>
   <si>
-    <t>4340179</t>
-  </si>
-  <si>
     <t>MRIDUL</t>
   </si>
   <si>
     <t>Test</t>
   </si>
   <si>
-    <t>345343</t>
-  </si>
-  <si>
-    <t>DALAL KANTILAL &amp; CO.</t>
+    <t>DALAL¬†KANTILAL¬†&amp; CO.</t>
   </si>
   <si>
     <t>COFCO</t>
   </si>
   <si>
-    <t>4658136</t>
-  </si>
-  <si>
-    <t>3905</t>
-  </si>
-  <si>
-    <t>4819500</t>
-  </si>
-  <si>
-    <t>3906</t>
-  </si>
-  <si>
     <t>ARIHANT OIL CORP</t>
   </si>
   <si>
-    <t>7219</t>
-  </si>
-  <si>
-    <t>3544</t>
-  </si>
-  <si>
     <t>KANTILAL RATILAL</t>
   </si>
   <si>
-    <t>4760005</t>
-  </si>
-  <si>
-    <t>3907</t>
-  </si>
-  <si>
-    <t>4798646</t>
-  </si>
-  <si>
-    <t>3908</t>
-  </si>
-  <si>
     <t>GOBIND</t>
   </si>
   <si>
     <t>SPIN AGRI</t>
   </si>
   <si>
-    <t>9759</t>
-  </si>
-  <si>
-    <t>3770</t>
-  </si>
-  <si>
-    <t>TARU TRADE ASSOCIATE </t>
+    <t>TARU¬†TRADE ASSOCIATE¬†</t>
   </si>
   <si>
     <t>SETH SAAVARIYA</t>
   </si>
   <si>
-    <t>3813</t>
-  </si>
-  <si>
     <t>MUKESH &amp; CO</t>
   </si>
   <si>
-    <t>8835</t>
-  </si>
-  <si>
     <t>AAVISHKAR</t>
   </si>
   <si>
     <t>KHODAL TRADING</t>
   </si>
   <si>
-    <t>5043</t>
-  </si>
-  <si>
     <t>PV COMMODITIES</t>
   </si>
   <si>
     <t>WIPRO ENTERPRISE</t>
   </si>
   <si>
-    <t>3383821</t>
-  </si>
-  <si>
-    <t>3818</t>
-  </si>
-  <si>
     <t>JOCIL</t>
   </si>
   <si>
-    <t>2615210</t>
-  </si>
-  <si>
-    <t>3746</t>
-  </si>
-  <si>
-    <t>2862727</t>
-  </si>
-  <si>
-    <t>3748</t>
-  </si>
-  <si>
     <t>PANCH JANIYA FOOD</t>
   </si>
   <si>
-    <t>2858691</t>
-  </si>
-  <si>
-    <t>2622</t>
-  </si>
-  <si>
     <t>CIKOF</t>
   </si>
   <si>
-    <t>2813874</t>
-  </si>
-  <si>
-    <t>3870</t>
-  </si>
-  <si>
     <t>ASHWINI</t>
   </si>
   <si>
-    <t>423384</t>
-  </si>
-  <si>
-    <t>3749</t>
-  </si>
-  <si>
-    <t>3137384</t>
-  </si>
-  <si>
-    <t>3750</t>
-  </si>
-  <si>
     <t>RAMESH SHARMA</t>
   </si>
   <si>
     <t>DILIP ENT</t>
   </si>
   <si>
-    <t>28250</t>
-  </si>
-  <si>
-    <t>785</t>
-  </si>
-  <si>
     <t>SSCO</t>
   </si>
   <si>
     <t>SHREE SHYAM ENT</t>
   </si>
   <si>
-    <t>295135</t>
-  </si>
-  <si>
-    <t>1110</t>
-  </si>
-  <si>
-    <t>567567</t>
-  </si>
-  <si>
-    <t>1113</t>
-  </si>
-  <si>
-    <t>608768</t>
-  </si>
-  <si>
-    <t>1139</t>
-  </si>
-  <si>
     <t>RAJENDRA RASTOGI</t>
   </si>
   <si>
-    <t>1521450</t>
-  </si>
-  <si>
-    <t>1150</t>
+    <t>RAHUL ENTERPRISE</t>
   </si>
   <si>
     <t>MUKESH AGARWAL</t>
@@ -304,37 +160,16 @@
     <t>TARUN SARKAR</t>
   </si>
   <si>
-    <t>1613325</t>
-  </si>
-  <si>
-    <t>1103</t>
-  </si>
-  <si>
     <t>BASUKINATH OIL MIL</t>
   </si>
   <si>
-    <t>443100</t>
-  </si>
-  <si>
-    <t>1144</t>
-  </si>
-  <si>
     <t>NAGARMALJI</t>
   </si>
   <si>
     <t>JANA BROTHERS</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1079</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>1024</t>
+    <t>GD STORE</t>
   </si>
   <si>
     <t>NEERAJ KHANDELWAL</t>
@@ -343,61 +178,25 @@
     <t>MANILAL THAKKAR</t>
   </si>
   <si>
-    <t>1126</t>
-  </si>
-  <si>
     <t>SRILAL GOKUL CHAND</t>
   </si>
   <si>
-    <t>2884382</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
     <t>PANALAL MURAILAL</t>
   </si>
   <si>
-    <t>4062</t>
-  </si>
-  <si>
-    <t>1056</t>
-  </si>
-  <si>
     <t>R K TRADERS</t>
   </si>
   <si>
-    <t>1722000</t>
-  </si>
-  <si>
-    <t>1153</t>
-  </si>
-  <si>
     <t>BINOD AGARWAL</t>
   </si>
   <si>
-    <t>1652963</t>
-  </si>
-  <si>
-    <t>1147</t>
-  </si>
-  <si>
     <t>RITESH AGARWAL</t>
   </si>
   <si>
     <t>SUMAN TRADERS</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>1098</t>
-  </si>
-  <si>
-    <t>1471050</t>
-  </si>
-  <si>
-    <t>1155</t>
+    <t>LOKENATH COMTRADE</t>
   </si>
   <si>
     <t>PRAKASH BOHRA</t>
@@ -406,67 +205,28 @@
     <t>MAA AMBIKA BHANDAR</t>
   </si>
   <si>
-    <t>1736175</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
     <t>PRAMOD AGARWAL</t>
   </si>
   <si>
     <t>SANTU KHANRA</t>
   </si>
   <si>
-    <t>531720</t>
-  </si>
-  <si>
-    <t>1148</t>
-  </si>
-  <si>
     <t>PAMILA STORE</t>
   </si>
   <si>
-    <t>1150002</t>
-  </si>
-  <si>
-    <t>1116</t>
-  </si>
-  <si>
     <t>GAURAV GOVIND</t>
   </si>
   <si>
     <t>SHUBH ENT</t>
   </si>
   <si>
-    <t>451500</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>2526038</t>
-  </si>
-  <si>
-    <t>1143</t>
-  </si>
-  <si>
     <t>MAHENDRA KEJERIWAL</t>
   </si>
   <si>
     <t>PANJA BRO</t>
   </si>
   <si>
-    <t>1375290</t>
-  </si>
-  <si>
-    <t>1136</t>
-  </si>
-  <si>
-    <t>3021480</t>
-  </si>
-  <si>
-    <t>1145</t>
+    <t>KARMA AGRO COMMODITIES</t>
   </si>
   <si>
     <t>OMR</t>
@@ -475,57 +235,24 @@
     <t>DEBOLINA TRADERS</t>
   </si>
   <si>
-    <t>1027024</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
     <t>S SHARMA</t>
   </si>
   <si>
     <t>DHONONJOY GOSH</t>
   </si>
   <si>
-    <t>1834560</t>
-  </si>
-  <si>
-    <t>1151</t>
-  </si>
-  <si>
     <t>GITA TRADING</t>
   </si>
   <si>
-    <t>3204159</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
     <t>GN &amp; SD</t>
   </si>
   <si>
-    <t>4095</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
     <t>PARTHA SARATHI SAHA</t>
   </si>
   <si>
-    <t>528498</t>
-  </si>
-  <si>
-    <t>1037</t>
-  </si>
-  <si>
     <t>RB FOOD</t>
   </si>
   <si>
-    <t>2776</t>
-  </si>
-  <si>
     <t>JOCIL LTD</t>
   </si>
   <si>
@@ -544,9 +271,6 @@
     <t>PANJA BROTHERS</t>
   </si>
   <si>
-    <t>KARMA AGRO COMMODITIES</t>
-  </si>
-  <si>
     <t>SHREE BASUKINATH OIL MILL</t>
   </si>
   <si>
@@ -583,9 +307,6 @@
     <t>PUJA OIL CO</t>
   </si>
   <si>
-    <t>RAHUL ENTERPRISE</t>
-  </si>
-  <si>
     <t>NKKM</t>
   </si>
   <si>
@@ -625,43 +346,385 @@
     <t>DURGA SYNDICATE</t>
   </si>
   <si>
-    <t>LOKENATH COMTRADE</t>
-  </si>
-  <si>
-    <t>GD STORE</t>
+    <t>PANCHJANYA FOOD</t>
+  </si>
+  <si>
+    <t>LOKNATH COMTRADE</t>
+  </si>
+  <si>
+    <t>JAGANNATH BISESARLAL</t>
+  </si>
+  <si>
+    <t>SRABANI PRAMANIK</t>
+  </si>
+  <si>
+    <t>SANJAY KUMAR SAHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANMOL INDUSTRIES </t>
+  </si>
+  <si>
+    <t>D K STORE</t>
+  </si>
+  <si>
+    <t>SHREE SHYAM ENTERPRISE</t>
+  </si>
+  <si>
+    <t>MAHABIR EDIBLE PRODUCTS PVT LTD</t>
+  </si>
+  <si>
+    <t>RAMA INDUSTRIES</t>
+  </si>
+  <si>
+    <t>BABA SHYAM OIL CORPORATION LLP</t>
+  </si>
+  <si>
+    <t>SUBAL KUNDU</t>
+  </si>
+  <si>
+    <t>GM &amp; SD</t>
+  </si>
+  <si>
+    <t>SHANKARLAL PAWAN KR</t>
+  </si>
+  <si>
+    <t>NKKM INDUSTRIES</t>
+  </si>
+  <si>
+    <t>RAJ INDUSTRIES</t>
+  </si>
+  <si>
+    <t>MOHIT BAKERS</t>
+  </si>
+  <si>
+    <t>JAYA INDUSTRIES</t>
+  </si>
+  <si>
+    <t>SRI SHYAM TRADERS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -669,23 +732,208 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -698,9 +946,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -708,44 +956,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -773,14 +1021,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -808,9 +1073,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -819,189 +1101,175 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
+            <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H105"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638565D9-6C2B-5744-8B9B-E8474858D82C}">
+  <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1027,7 +1295,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
+      <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1036,31 +1304,31 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
+      <c r="D2">
+        <v>2117.3200000000002</v>
       </c>
       <c r="E2" s="1">
         <v>45643</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
+      <c r="D3">
+        <v>1931891</v>
       </c>
       <c r="E3" s="1">
         <v>45633</v>
@@ -1072,21 +1340,21 @@
         <v>1</v>
       </c>
       <c r="H3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
+      <c r="D4">
+        <v>2316491</v>
       </c>
       <c r="E4" s="1">
         <v>45633</v>
@@ -1098,21 +1366,21 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+      <c r="D5">
+        <v>4179466</v>
       </c>
       <c r="E5" s="1">
         <v>45633</v>
@@ -1124,21 +1392,21 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
+      <c r="D6">
+        <v>3005658</v>
       </c>
       <c r="E6" s="1">
         <v>45633</v>
@@ -1150,21 +1418,21 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>1298266</v>
       </c>
       <c r="E7" s="1">
         <v>45624</v>
@@ -1176,21 +1444,21 @@
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>2124885</v>
       </c>
       <c r="E8" s="1">
         <v>45639</v>
@@ -1202,21 +1470,21 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>4340179</v>
       </c>
       <c r="E9" s="1">
         <v>45635</v>
@@ -1228,21 +1496,21 @@
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>345343</v>
       </c>
       <c r="E10" s="1">
         <v>45642</v>
@@ -1254,174 +1522,174 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>4658136</v>
       </c>
       <c r="E11" s="1">
         <v>45640</v>
       </c>
-      <c r="F11" t="s">
-        <v>33</v>
+      <c r="F11">
+        <v>3905</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="D12">
+        <v>4819500</v>
       </c>
       <c r="E12" s="1">
         <v>45640</v>
       </c>
-      <c r="F12" t="s">
-        <v>35</v>
+      <c r="F12">
+        <v>3906</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" t="s">
-        <v>37</v>
+        <v>23</v>
+      </c>
+      <c r="D13">
+        <v>7219</v>
       </c>
       <c r="E13" s="1">
         <v>45616</v>
       </c>
-      <c r="F13" t="s">
-        <v>38</v>
+      <c r="F13">
+        <v>3544</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>40</v>
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>4760005</v>
       </c>
       <c r="E14" s="1">
         <v>45640</v>
       </c>
-      <c r="F14" t="s">
-        <v>41</v>
+      <c r="F14">
+        <v>3907</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>4798646</v>
       </c>
       <c r="E15" s="1">
         <v>45640</v>
       </c>
-      <c r="F15" t="s">
-        <v>43</v>
+      <c r="F15">
+        <v>3908</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>9759</v>
       </c>
       <c r="E16" s="1">
         <v>45631</v>
       </c>
-      <c r="F16" t="s">
-        <v>47</v>
+      <c r="F16">
+        <v>3770</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="D17">
         <v>2010</v>
@@ -1429,28 +1697,28 @@
       <c r="E17" s="1">
         <v>45633</v>
       </c>
-      <c r="F17" t="s">
-        <v>50</v>
+      <c r="F17">
+        <v>3813</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="D18">
+        <v>8835</v>
       </c>
       <c r="E18" s="1">
         <v>45643</v>
@@ -1459,21 +1727,21 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="D19">
+        <v>5043</v>
       </c>
       <c r="E19" s="1">
         <v>45643</v>
@@ -1482,434 +1750,434 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="D20">
+        <v>3383821</v>
       </c>
       <c r="E20" s="1">
         <v>45633</v>
       </c>
-      <c r="F20" t="s">
-        <v>59</v>
+      <c r="F20">
+        <v>3818</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" t="s">
-        <v>61</v>
+        <v>34</v>
+      </c>
+      <c r="D21">
+        <v>2615210</v>
       </c>
       <c r="E21" s="1">
         <v>45629</v>
       </c>
-      <c r="F21" t="s">
-        <v>62</v>
+      <c r="F21">
+        <v>3746</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
-        <v>63</v>
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>2862727</v>
       </c>
       <c r="E22" s="1">
         <v>45629</v>
       </c>
-      <c r="F22" t="s">
-        <v>64</v>
+      <c r="F22">
+        <v>3748</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" t="s">
-        <v>66</v>
+        <v>35</v>
+      </c>
+      <c r="D23">
+        <v>2858691</v>
       </c>
       <c r="E23" s="1">
         <v>45622</v>
       </c>
-      <c r="F23" t="s">
-        <v>67</v>
+      <c r="F23">
+        <v>2622</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>69</v>
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>2813874</v>
       </c>
       <c r="E24" s="1">
         <v>45637</v>
       </c>
-      <c r="F24" t="s">
-        <v>70</v>
+      <c r="F24">
+        <v>3870</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="H24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <v>423384</v>
       </c>
       <c r="E25" s="1">
         <v>45629</v>
       </c>
-      <c r="F25" t="s">
-        <v>73</v>
+      <c r="F25">
+        <v>3749</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="D26">
+        <v>3137384</v>
       </c>
       <c r="E26" s="1">
         <v>45629</v>
       </c>
-      <c r="F26" t="s">
-        <v>75</v>
+      <c r="F26">
+        <v>3750</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
+        <v>39</v>
+      </c>
+      <c r="D27">
+        <v>28250</v>
       </c>
       <c r="E27" s="1">
         <v>45640</v>
       </c>
-      <c r="F27" t="s">
-        <v>79</v>
+      <c r="F27">
+        <v>785</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
+        <v>41</v>
+      </c>
+      <c r="D28">
+        <v>295135</v>
       </c>
       <c r="E28" s="1">
         <v>45631</v>
       </c>
-      <c r="F28" t="s">
-        <v>83</v>
+      <c r="F28">
+        <v>1110</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" t="s">
-        <v>84</v>
+        <v>41</v>
+      </c>
+      <c r="D29">
+        <v>567567</v>
       </c>
       <c r="E29" s="1">
         <v>45631</v>
       </c>
-      <c r="F29" t="s">
-        <v>85</v>
+      <c r="F29">
+        <v>1113</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" t="s">
-        <v>86</v>
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>608768</v>
       </c>
       <c r="E30" s="1">
         <v>45634</v>
       </c>
-      <c r="F30" t="s">
-        <v>87</v>
+      <c r="F30">
+        <v>1139</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" t="s">
-        <v>89</v>
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>1521450</v>
       </c>
       <c r="E31" s="1">
         <v>45639</v>
       </c>
-      <c r="F31" t="s">
-        <v>90</v>
+      <c r="F31">
+        <v>1150</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" t="s">
-        <v>93</v>
+        <v>45</v>
+      </c>
+      <c r="D32">
+        <v>1613325</v>
       </c>
       <c r="E32" s="1">
         <v>45628</v>
       </c>
-      <c r="F32" t="s">
-        <v>94</v>
+      <c r="F32">
+        <v>1103</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" t="s">
-        <v>96</v>
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>443100</v>
       </c>
       <c r="E33" s="1">
         <v>45636</v>
       </c>
-      <c r="F33" t="s">
-        <v>97</v>
+      <c r="F33">
+        <v>1144</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34">
         <v>100</v>
       </c>
       <c r="E34" s="1">
         <v>45617</v>
       </c>
-      <c r="F34" t="s">
-        <v>101</v>
+      <c r="F34">
+        <v>1079</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" t="s">
-        <v>102</v>
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>90</v>
       </c>
       <c r="E35" s="1">
         <v>45632</v>
       </c>
-      <c r="F35" t="s">
-        <v>103</v>
+      <c r="F35">
+        <v>1024</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>598100</v>
@@ -1917,493 +2185,493 @@
       <c r="E36" s="1">
         <v>45632</v>
       </c>
-      <c r="F36" t="s">
-        <v>106</v>
+      <c r="F36">
+        <v>1126</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" t="s">
-        <v>108</v>
+        <v>52</v>
+      </c>
+      <c r="D37">
+        <v>2884382</v>
       </c>
       <c r="E37" s="1">
         <v>45632</v>
       </c>
-      <c r="F37" t="s">
-        <v>109</v>
+      <c r="F37">
+        <v>1128</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
-      </c>
-      <c r="D38" t="s">
-        <v>111</v>
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>4062</v>
       </c>
       <c r="E38" s="1">
         <v>45611</v>
       </c>
-      <c r="F38" t="s">
-        <v>112</v>
+      <c r="F38">
+        <v>1056</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" t="s">
-        <v>114</v>
+        <v>54</v>
+      </c>
+      <c r="D39">
+        <v>1722000</v>
       </c>
       <c r="E39" s="1">
         <v>45642</v>
       </c>
-      <c r="F39" t="s">
-        <v>115</v>
+      <c r="F39">
+        <v>1153</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" t="s">
-        <v>117</v>
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>1652963</v>
       </c>
       <c r="E40" s="1">
         <v>45637</v>
       </c>
-      <c r="F40" t="s">
-        <v>118</v>
+      <c r="F40">
+        <v>1147</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C41" t="s">
-        <v>120</v>
-      </c>
-      <c r="D41" t="s">
-        <v>121</v>
+        <v>57</v>
+      </c>
+      <c r="D41">
+        <v>2016</v>
       </c>
       <c r="E41" s="1">
         <v>45626</v>
       </c>
-      <c r="F41" t="s">
-        <v>122</v>
+      <c r="F41">
+        <v>1098</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" t="s">
-        <v>123</v>
+        <v>58</v>
+      </c>
+      <c r="D42">
+        <v>1471050</v>
       </c>
       <c r="E42" s="1">
         <v>45642</v>
       </c>
-      <c r="F42" t="s">
-        <v>124</v>
+      <c r="F42">
+        <v>1155</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" t="s">
-        <v>127</v>
+        <v>60</v>
+      </c>
+      <c r="D43">
+        <v>1736175</v>
       </c>
       <c r="E43" s="1">
         <v>45635</v>
       </c>
-      <c r="F43" t="s">
-        <v>128</v>
+      <c r="F43">
+        <v>1140</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" t="s">
-        <v>131</v>
+        <v>62</v>
+      </c>
+      <c r="D44">
+        <v>531720</v>
       </c>
       <c r="E44" s="1">
         <v>45638</v>
       </c>
-      <c r="F44" t="s">
-        <v>132</v>
+      <c r="F44">
+        <v>1148</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" t="s">
-        <v>134</v>
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>1150002</v>
       </c>
       <c r="E45" s="1">
         <v>45631</v>
       </c>
-      <c r="F45" t="s">
-        <v>135</v>
+      <c r="F45">
+        <v>1116</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D46" t="s">
-        <v>138</v>
+        <v>65</v>
+      </c>
+      <c r="D46">
+        <v>451500</v>
       </c>
       <c r="E46" s="1">
         <v>45632</v>
       </c>
-      <c r="F46" t="s">
-        <v>139</v>
+      <c r="F46">
+        <v>1130</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
-      </c>
-      <c r="D47" t="s">
-        <v>140</v>
+        <v>65</v>
+      </c>
+      <c r="D47">
+        <v>2526038</v>
       </c>
       <c r="E47" s="1">
         <v>45635</v>
       </c>
-      <c r="F47" t="s">
-        <v>141</v>
+      <c r="F47">
+        <v>1143</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
-      </c>
-      <c r="D48" t="s">
-        <v>144</v>
+        <v>67</v>
+      </c>
+      <c r="D48">
+        <v>1375290</v>
       </c>
       <c r="E48" s="1">
         <v>45633</v>
       </c>
-      <c r="F48" t="s">
-        <v>145</v>
+      <c r="F48">
+        <v>1136</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" t="s">
-        <v>146</v>
+        <v>68</v>
+      </c>
+      <c r="D49">
+        <v>3021480</v>
       </c>
       <c r="E49" s="1">
         <v>45636</v>
       </c>
-      <c r="F49" t="s">
-        <v>147</v>
+      <c r="F49">
+        <v>1145</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" t="s">
-        <v>150</v>
+        <v>70</v>
+      </c>
+      <c r="D50">
+        <v>1027024</v>
       </c>
       <c r="E50" s="1">
         <v>45628</v>
       </c>
-      <c r="F50" t="s">
-        <v>151</v>
+      <c r="F50">
+        <v>1104</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2">
+      <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" t="s">
-        <v>154</v>
+        <v>72</v>
+      </c>
+      <c r="D51">
+        <v>1834560</v>
       </c>
       <c r="E51" s="1">
         <v>45642</v>
       </c>
-      <c r="F51" t="s">
-        <v>155</v>
+      <c r="F51">
+        <v>1151</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
+      <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
-      </c>
-      <c r="D52" t="s">
-        <v>157</v>
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <v>3204159</v>
       </c>
       <c r="E52" s="1">
         <v>45642</v>
       </c>
-      <c r="F52" t="s">
-        <v>158</v>
+      <c r="F52">
+        <v>1152</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53" s="2">
+      <c r="A53">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" t="s">
-        <v>160</v>
+        <v>74</v>
+      </c>
+      <c r="D53">
+        <v>4095</v>
       </c>
       <c r="E53" s="1">
         <v>45530</v>
       </c>
-      <c r="F53" t="s">
-        <v>161</v>
+      <c r="F53">
+        <v>653</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2">
+      <c r="A54">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>162</v>
-      </c>
-      <c r="D54" t="s">
-        <v>163</v>
+        <v>75</v>
+      </c>
+      <c r="D54">
+        <v>528498</v>
       </c>
       <c r="E54" s="1">
         <v>45608</v>
       </c>
-      <c r="F54" t="s">
-        <v>164</v>
+      <c r="F54">
+        <v>1037</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
+      <c r="A55">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>165</v>
+        <v>76</v>
       </c>
       <c r="D55">
         <v>1591157</v>
@@ -2411,25 +2679,25 @@
       <c r="E55" s="1">
         <v>45638</v>
       </c>
-      <c r="F55" t="s">
-        <v>166</v>
+      <c r="F55">
+        <v>2776</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="2">
+      <c r="A56">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C56" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="D56">
         <v>2591327</v>
@@ -2444,18 +2712,18 @@
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="2">
+      <c r="A57">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C57" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="D57">
         <v>2203768</v>
@@ -2467,21 +2735,21 @@
         <v>3801</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
+      <c r="A58">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C58" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>2096294</v>
@@ -2493,21 +2761,21 @@
         <v>3802</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="2">
+      <c r="A59">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="D59">
         <v>2614125</v>
@@ -2522,18 +2790,18 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="2">
+      <c r="A60">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="D60">
         <v>2965859</v>
@@ -2548,18 +2816,18 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
+      <c r="A61">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="D61">
         <v>200</v>
@@ -2574,18 +2842,18 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="2">
+      <c r="A62">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>79</v>
       </c>
       <c r="D62">
         <v>1899859</v>
@@ -2597,21 +2865,21 @@
         <v>2626</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63" s="2">
+      <c r="A63">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
       <c r="D63">
         <v>806998</v>
@@ -2623,21 +2891,21 @@
         <v>3987</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>12</v>
-      </c>
-      <c r="C64" t="s">
-        <v>13</v>
       </c>
       <c r="D64">
         <v>3724838</v>
@@ -2649,21 +2917,21 @@
         <v>3913</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65" s="2">
+      <c r="A65">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>172</v>
+        <v>82</v>
       </c>
       <c r="D65">
         <v>1328565</v>
@@ -2678,18 +2946,18 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A66" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>91</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>174</v>
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
       </c>
       <c r="D66">
         <v>1274438</v>
@@ -2704,18 +2972,18 @@
         <v>1</v>
       </c>
       <c r="H66" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
+      <c r="A67">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C67" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="D67">
         <v>1382913</v>
@@ -2730,18 +2998,18 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" s="2">
+      <c r="A68">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C68" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="D68">
         <v>571725</v>
@@ -2753,21 +3021,21 @@
         <v>1162</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="2">
+      <c r="A69">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
-        <v>176</v>
+        <v>85</v>
       </c>
       <c r="D69">
         <v>1659000</v>
@@ -2782,18 +3050,18 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
+      <c r="A70">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="C70" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="D70">
         <v>2978514</v>
@@ -2808,18 +3076,18 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="2">
+      <c r="A71">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
       <c r="D71">
         <v>750002</v>
@@ -2834,18 +3102,18 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="2">
+      <c r="A72">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="D72">
         <v>20</v>
@@ -2860,18 +3128,18 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
+      <c r="A73">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C73" t="s">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="D73">
         <v>1125002</v>
@@ -2883,21 +3151,21 @@
         <v>1158</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="2">
+      <c r="A74">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="D74">
         <v>1125002</v>
@@ -2912,18 +3180,18 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="2">
+      <c r="A75">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C75" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="D75">
         <v>219975</v>
@@ -2935,21 +3203,21 @@
         <v>1157</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
+      <c r="A76">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C76" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
       <c r="D76">
         <v>439950</v>
@@ -2961,21 +3229,21 @@
         <v>1156</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A77" s="2">
+      <c r="A77">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>129</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="D77">
         <v>1125002</v>
@@ -2987,21 +3255,21 @@
         <v>1160</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A78" s="2">
+      <c r="A78">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C78" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D78">
         <v>3168678</v>
@@ -3016,18 +3284,18 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
+      <c r="A79">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C79" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D79">
         <v>3312107</v>
@@ -3039,21 +3307,21 @@
         <v>3830</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A80" s="2">
+      <c r="A80">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="D80">
         <v>2191826</v>
@@ -3068,18 +3336,18 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" s="2">
+      <c r="A81">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="D81">
         <v>106790</v>
@@ -3091,21 +3359,21 @@
         <v>3817</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
+      <c r="A82">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="D82">
         <v>9161612.4399999995</v>
@@ -3120,18 +3388,18 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A83" s="2">
+      <c r="A83">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
-        <v>185</v>
+        <v>94</v>
       </c>
       <c r="D83">
         <v>1337291</v>
@@ -3146,18 +3414,18 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" s="2">
+      <c r="A84">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C84" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="D84">
         <v>1892374</v>
@@ -3172,18 +3440,18 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
+      <c r="A85">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>187</v>
+        <v>95</v>
       </c>
       <c r="D85">
         <v>4246864</v>
@@ -3195,21 +3463,21 @@
         <v>2796</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="2">
+      <c r="A86">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D86">
         <v>1421683</v>
@@ -3224,18 +3492,18 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="2">
+      <c r="A87">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="D87">
         <v>1413014</v>
@@ -3250,18 +3518,18 @@
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
+      <c r="A88">
         <v>86</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>189</v>
+        <v>97</v>
       </c>
       <c r="D88">
         <v>4217634</v>
@@ -3276,18 +3544,18 @@
         <v>1</v>
       </c>
       <c r="H88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="2">
+      <c r="A89">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="C89" t="s">
-        <v>190</v>
+        <v>98</v>
       </c>
       <c r="D89">
         <v>3691</v>
@@ -3302,18 +3570,18 @@
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="2">
+      <c r="A90">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C90" t="s">
-        <v>191</v>
+        <v>99</v>
       </c>
       <c r="D90">
         <v>3313737</v>
@@ -3328,18 +3596,18 @@
         <v>1</v>
       </c>
       <c r="H90" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
+      <c r="A91">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>192</v>
+        <v>100</v>
       </c>
       <c r="D91">
         <v>1301496</v>
@@ -3354,18 +3622,18 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="2">
+      <c r="A92">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="D92">
         <v>2826663</v>
@@ -3380,18 +3648,18 @@
         <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="2">
+      <c r="A93">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>194</v>
+        <v>102</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c r="D93">
         <v>225760</v>
@@ -3403,21 +3671,21 @@
         <v>2828</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
+      <c r="A94">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="C94" t="s">
-        <v>177</v>
+        <v>86</v>
       </c>
       <c r="D94">
         <v>2978514</v>
@@ -3429,21 +3697,21 @@
         <v>1154</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="2">
+      <c r="A95">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>196</v>
+        <v>104</v>
       </c>
       <c r="D95">
         <v>4189059</v>
@@ -3455,21 +3723,21 @@
         <v>4017</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="2">
+      <c r="A96">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="D96">
         <v>2884770</v>
@@ -3481,21 +3749,21 @@
         <v>2820</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="2">
+      <c r="A97">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C97" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="D97">
         <v>3013826</v>
@@ -3507,21 +3775,21 @@
         <v>2821</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="2">
+      <c r="A98">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="D98">
         <v>3137820</v>
@@ -3536,18 +3804,18 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A99" s="2">
+      <c r="A99">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="C99" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="D99">
         <v>3602167</v>
@@ -3562,18 +3830,18 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A100" s="2">
+      <c r="A100">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="D100">
         <v>3203311</v>
@@ -3588,18 +3856,18 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A101" s="2">
+      <c r="A101">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="D101">
         <v>1865061</v>
@@ -3611,21 +3879,21 @@
         <v>3904</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A102" s="2">
+      <c r="A102">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="D102">
         <v>3417933.35</v>
@@ -3640,18 +3908,18 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A103" s="2">
+      <c r="A103">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="D103">
         <v>1214514</v>
@@ -3663,21 +3931,21 @@
         <v>2837</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A104" s="2">
+      <c r="A104">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>119</v>
+        <v>56</v>
       </c>
       <c r="C104" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="D104">
         <v>2642304</v>
@@ -3692,18 +3960,18 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A105" s="2">
+      <c r="A105">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>152</v>
+        <v>71</v>
       </c>
       <c r="C105" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="D105">
         <v>1926663</v>
@@ -3718,13 +3986,946 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>21</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C106" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106">
+        <v>3417933.35</v>
+      </c>
+      <c r="E106" s="1">
+        <v>45646</v>
+      </c>
+      <c r="F106">
+        <v>3986</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>80</v>
+      </c>
+      <c r="C107" t="s">
+        <v>81</v>
+      </c>
+      <c r="D107">
+        <v>227302</v>
+      </c>
+      <c r="E107" s="1">
+        <v>45646</v>
+      </c>
+      <c r="F107">
+        <v>3987</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>32</v>
+      </c>
+      <c r="C108" t="s">
+        <v>106</v>
+      </c>
+      <c r="D108">
+        <v>2497682</v>
+      </c>
+      <c r="E108" s="1">
+        <v>45641</v>
+      </c>
+      <c r="F108">
+        <v>3915</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>32</v>
+      </c>
+      <c r="C109" t="s">
+        <v>77</v>
+      </c>
+      <c r="D109">
+        <v>3730175</v>
+      </c>
+      <c r="E109" s="1">
+        <v>45636</v>
+      </c>
+      <c r="F109">
+        <v>3839</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
+        <v>108</v>
+      </c>
+      <c r="D110">
+        <v>2358691</v>
+      </c>
+      <c r="E110" s="1">
+        <v>45622</v>
+      </c>
+      <c r="F110">
+        <v>2622</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>42</v>
+      </c>
+      <c r="C111" t="s">
+        <v>107</v>
+      </c>
+      <c r="D111">
+        <v>1221854</v>
+      </c>
+      <c r="E111" s="1">
+        <v>45649</v>
+      </c>
+      <c r="F111">
+        <v>2848</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>56</v>
+      </c>
+      <c r="C112" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112">
+        <v>2642304</v>
+      </c>
+      <c r="E112" s="1">
+        <v>45648</v>
+      </c>
+      <c r="F112">
+        <v>2841</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>71</v>
+      </c>
+      <c r="C113" t="s">
+        <v>110</v>
+      </c>
+      <c r="D113">
+        <v>2466104</v>
+      </c>
+      <c r="E113" s="1">
+        <v>45648</v>
+      </c>
+      <c r="F113">
+        <v>2835</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>71</v>
+      </c>
+      <c r="C114" t="s">
+        <v>111</v>
+      </c>
+      <c r="D114">
+        <v>967840</v>
+      </c>
+      <c r="E114" s="1">
+        <v>45639</v>
+      </c>
+      <c r="F114">
+        <v>2789</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>44</v>
+      </c>
+      <c r="C115" t="s">
+        <v>45</v>
+      </c>
+      <c r="D115">
+        <v>1013325</v>
+      </c>
+      <c r="E115" s="1">
+        <v>45628</v>
+      </c>
+      <c r="F115">
+        <v>1103</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" t="s">
+        <v>112</v>
+      </c>
+      <c r="D116">
+        <v>3268125</v>
+      </c>
+      <c r="E116" s="1">
+        <v>45647</v>
+      </c>
+      <c r="F116">
+        <v>1167</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" t="s">
+        <v>86</v>
+      </c>
+      <c r="D117">
+        <v>2978514</v>
+      </c>
+      <c r="E117" s="1">
+        <v>45642</v>
+      </c>
+      <c r="F117">
+        <v>1154</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>113</v>
+      </c>
+      <c r="D118">
+        <v>4193759</v>
+      </c>
+      <c r="E118" s="1">
+        <v>45644</v>
+      </c>
+      <c r="F118">
+        <v>2811</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>113</v>
+      </c>
+      <c r="D119">
+        <v>2286947</v>
+      </c>
+      <c r="E119" s="1">
+        <v>45647</v>
+      </c>
+      <c r="F119">
+        <v>2832</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
+        <v>108</v>
+      </c>
+      <c r="D120">
+        <v>1858691</v>
+      </c>
+      <c r="E120" s="1">
+        <v>45622</v>
+      </c>
+      <c r="F120">
+        <v>2622</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>42</v>
+      </c>
+      <c r="C121" t="s">
+        <v>114</v>
+      </c>
+      <c r="D121">
+        <v>3086984</v>
+      </c>
+      <c r="E121" s="1">
+        <v>45650</v>
+      </c>
+      <c r="F121">
+        <v>2850</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>56</v>
+      </c>
+      <c r="C122" t="s">
+        <v>115</v>
+      </c>
+      <c r="D122">
+        <v>1342310</v>
+      </c>
+      <c r="E122" s="1">
+        <v>45650</v>
+      </c>
+      <c r="F122">
+        <v>2852</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>42</v>
+      </c>
+      <c r="C123" t="s">
+        <v>94</v>
+      </c>
+      <c r="D123">
+        <v>1312590</v>
+      </c>
+      <c r="E123" s="1">
+        <v>45647</v>
+      </c>
+      <c r="F123">
+        <v>2834</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>44</v>
+      </c>
+      <c r="C124" t="s">
+        <v>45</v>
+      </c>
+      <c r="D124">
+        <v>1991723</v>
+      </c>
+      <c r="E124" s="1">
+        <v>45650</v>
+      </c>
+      <c r="F124">
+        <v>2851</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>66</v>
+      </c>
+      <c r="C125" t="s">
+        <v>105</v>
+      </c>
+      <c r="D125">
+        <v>3104252</v>
+      </c>
+      <c r="E125" s="1">
+        <v>45649</v>
+      </c>
+      <c r="F125">
+        <v>3104252</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+      <c r="H125" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126" t="s">
+        <v>105</v>
+      </c>
+      <c r="D126">
+        <v>3104252</v>
+      </c>
+      <c r="E126" s="1">
+        <v>45649</v>
+      </c>
+      <c r="F126">
+        <v>2847</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>66</v>
+      </c>
+      <c r="C127" t="s">
+        <v>105</v>
+      </c>
+      <c r="D127">
+        <v>3080411</v>
+      </c>
+      <c r="E127" s="1">
+        <v>45649</v>
+      </c>
+      <c r="F127">
+        <v>2846</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" t="s">
+        <v>116</v>
+      </c>
+      <c r="D128">
+        <v>1119998</v>
+      </c>
+      <c r="E128" s="1">
+        <v>45649</v>
+      </c>
+      <c r="F128">
+        <v>1169</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>64</v>
+      </c>
+      <c r="C129" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129">
+        <v>1747200</v>
+      </c>
+      <c r="E129" s="1">
+        <v>45650</v>
+      </c>
+      <c r="F129">
+        <v>1171</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>64</v>
+      </c>
+      <c r="C130" t="s">
+        <v>118</v>
+      </c>
+      <c r="D130">
+        <v>2885832</v>
+      </c>
+      <c r="E130" s="1">
+        <v>45647</v>
+      </c>
+      <c r="F130">
+        <v>1166</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>66</v>
+      </c>
+      <c r="C131" t="s">
+        <v>119</v>
+      </c>
+      <c r="D131">
+        <v>2867718</v>
+      </c>
+      <c r="E131" s="1">
+        <v>45649</v>
+      </c>
+      <c r="F131">
+        <v>1170</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>71</v>
+      </c>
+      <c r="C132" t="s">
+        <v>120</v>
+      </c>
+      <c r="D132">
+        <v>4095</v>
+      </c>
+      <c r="E132" s="1">
+        <v>45530</v>
+      </c>
+      <c r="F132">
+        <v>653</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133">
+        <v>899859</v>
+      </c>
+      <c r="E133" s="1">
+        <v>45622</v>
+      </c>
+      <c r="F133">
+        <v>2626</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>122</v>
+      </c>
+      <c r="D134">
+        <v>2746864</v>
+      </c>
+      <c r="E134" s="1">
+        <v>45642</v>
+      </c>
+      <c r="F134">
+        <v>2796</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>44</v>
+      </c>
+      <c r="C135" t="s">
+        <v>45</v>
+      </c>
+      <c r="D135">
+        <v>113325</v>
+      </c>
+      <c r="E135" s="1">
+        <v>45628</v>
+      </c>
+      <c r="F135">
+        <v>1103</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>37</v>
+      </c>
+      <c r="C136" t="s">
+        <v>123</v>
+      </c>
+      <c r="D136">
+        <v>8342</v>
+      </c>
+      <c r="E136" s="1">
+        <v>45652</v>
+      </c>
+      <c r="F136">
+        <v>4052</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+      <c r="C137" t="s">
+        <v>124</v>
+      </c>
+      <c r="D137">
+        <v>3289186</v>
+      </c>
+      <c r="E137" s="1">
+        <v>45648</v>
+      </c>
+      <c r="F137">
+        <v>2840</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+      <c r="C138" t="s">
+        <v>125</v>
+      </c>
+      <c r="D138">
+        <v>3960807</v>
+      </c>
+      <c r="E138" s="1">
+        <v>45648</v>
+      </c>
+      <c r="F138">
+        <v>2839</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>71</v>
+      </c>
+      <c r="C139" t="s">
+        <v>126</v>
+      </c>
+      <c r="D139">
+        <v>13320</v>
+      </c>
+      <c r="E139" s="1">
+        <v>45651</v>
+      </c>
+      <c r="F139">
+        <v>2860</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>66</v>
+      </c>
+      <c r="C140" t="s">
+        <v>105</v>
+      </c>
+      <c r="D140">
+        <v>3330107</v>
+      </c>
+      <c r="E140" s="1">
+        <v>45651</v>
+      </c>
+      <c r="F140">
+        <v>2854</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>66</v>
+      </c>
+      <c r="C141" t="s">
+        <v>105</v>
+      </c>
+      <c r="D141">
+        <v>2878397</v>
+      </c>
+      <c r="E141" s="1">
+        <v>45651</v>
+      </c>
+      <c r="F141">
+        <v>2855</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:H69">
-    <sortCondition ref="A69"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/final.xlsx
+++ b/final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{347C1320-4F68-D649-9E6A-04E71350CE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F10EE-F2DE-944C-9917-17B19E355369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15720" xr2:uid="{67813D4E-E05E-934C-89DB-5B29DB79C298}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67813D4E-E05E-934C-89DB-5B29DB79C298}"/>
   </bookViews>
   <sheets>
     <sheet name="final (1)" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="128">
   <si>
     <t>ID</t>
   </si>
@@ -85,9 +85,6 @@
     <t>Test</t>
   </si>
   <si>
-    <t>DALAL¬†KANTILAL¬†&amp; CO.</t>
-  </si>
-  <si>
     <t>COFCO</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
     <t>SPIN AGRI</t>
   </si>
   <si>
-    <t>TARU¬†TRADE ASSOCIATE¬†</t>
-  </si>
-  <si>
     <t>SETH SAAVARIYA</t>
   </si>
   <si>
@@ -401,6 +395,15 @@
   </si>
   <si>
     <t>SRI SHYAM TRADERS</t>
+  </si>
+  <si>
+    <t>TARU TRADE ASSOCIATE</t>
+  </si>
+  <si>
+    <t>TARU TRADE ASSOCIATE </t>
+  </si>
+  <si>
+    <t>DALAL KANTILAL &amp; CO.</t>
   </si>
 </sst>
 </file>
@@ -1264,9 +1267,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638565D9-6C2B-5744-8B9B-E8474858D82C}">
   <dimension ref="A1:H141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1530,10 +1538,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
       </c>
       <c r="D11">
         <v>4658136</v>
@@ -1556,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
       <c r="D12">
         <v>4819500</v>
@@ -1582,10 +1590,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>7219</v>
@@ -1608,10 +1616,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>4760005</v>
@@ -1634,10 +1642,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>4798646</v>
@@ -1660,10 +1668,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
         <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
       </c>
       <c r="D16">
         <v>9759</v>
@@ -1686,10 +1694,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>126</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>2010</v>
@@ -1712,10 +1720,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
         <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>29</v>
       </c>
       <c r="D18">
         <v>8835</v>
@@ -1735,10 +1743,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19">
         <v>5043</v>
@@ -1758,10 +1766,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20">
         <v>3383821</v>
@@ -1784,10 +1792,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
-      </c>
-      <c r="C21" t="s">
-        <v>34</v>
       </c>
       <c r="D21">
         <v>2615210</v>
@@ -1810,10 +1818,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
         <v>32</v>
-      </c>
-      <c r="C22" t="s">
-        <v>34</v>
       </c>
       <c r="D22">
         <v>2862727</v>
@@ -1839,7 +1847,7 @@
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23">
         <v>2858691</v>
@@ -1862,10 +1870,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D24">
         <v>2813874</v>
@@ -1888,10 +1896,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>423384</v>
@@ -1914,10 +1922,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>3137384</v>
@@ -1940,10 +1948,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D27">
         <v>28250</v>
@@ -1958,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1966,10 +1974,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D28">
         <v>295135</v>
@@ -1984,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1992,10 +2000,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D29">
         <v>567567</v>
@@ -2010,7 +2018,7 @@
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2018,10 +2026,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30">
         <v>608768</v>
@@ -2036,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2044,10 +2052,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31">
         <v>1521450</v>
@@ -2062,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -2070,10 +2078,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32">
         <v>1613325</v>
@@ -2088,7 +2096,7 @@
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2096,10 +2104,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
         <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>46</v>
       </c>
       <c r="D33">
         <v>443100</v>
@@ -2114,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2122,10 +2130,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D34">
         <v>100</v>
@@ -2140,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2148,10 +2156,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
         <v>47</v>
-      </c>
-      <c r="C35" t="s">
-        <v>49</v>
       </c>
       <c r="D35">
         <v>90</v>
@@ -2166,7 +2174,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2174,10 +2182,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36">
         <v>598100</v>
@@ -2192,7 +2200,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2200,10 +2208,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
         <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>52</v>
       </c>
       <c r="D37">
         <v>2884382</v>
@@ -2218,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2226,10 +2234,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38">
         <v>4062</v>
@@ -2244,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2252,10 +2260,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39">
         <v>1722000</v>
@@ -2270,7 +2278,7 @@
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2278,10 +2286,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40">
         <v>1652963</v>
@@ -2296,7 +2304,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2304,10 +2312,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41">
         <v>2016</v>
@@ -2322,7 +2330,7 @@
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2330,10 +2338,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" t="s">
         <v>56</v>
-      </c>
-      <c r="C42" t="s">
-        <v>58</v>
       </c>
       <c r="D42">
         <v>1471050</v>
@@ -2348,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -2356,10 +2364,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>1736175</v>
@@ -2374,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -2382,10 +2390,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D44">
         <v>531720</v>
@@ -2400,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -2408,10 +2416,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
         <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>63</v>
       </c>
       <c r="D45">
         <v>1150002</v>
@@ -2426,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
@@ -2434,10 +2442,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D46">
         <v>451500</v>
@@ -2452,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -2460,10 +2468,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D47">
         <v>2526038</v>
@@ -2478,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -2486,10 +2494,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D48">
         <v>1375290</v>
@@ -2504,7 +2512,7 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -2512,10 +2520,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" t="s">
         <v>66</v>
-      </c>
-      <c r="C49" t="s">
-        <v>68</v>
       </c>
       <c r="D49">
         <v>3021480</v>
@@ -2530,7 +2538,7 @@
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2538,10 +2546,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D50">
         <v>1027024</v>
@@ -2556,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -2564,10 +2572,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D51">
         <v>1834560</v>
@@ -2582,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2590,10 +2598,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" t="s">
         <v>71</v>
-      </c>
-      <c r="C52" t="s">
-        <v>73</v>
       </c>
       <c r="D52">
         <v>3204159</v>
@@ -2608,7 +2616,7 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -2616,10 +2624,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D53">
         <v>4095</v>
@@ -2634,7 +2642,7 @@
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -2642,10 +2650,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54">
         <v>528498</v>
@@ -2660,7 +2668,7 @@
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
@@ -2668,10 +2676,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D55">
         <v>1591157</v>
@@ -2694,10 +2702,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D56">
         <v>2591327</v>
@@ -2720,10 +2728,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D57">
         <v>2203768</v>
@@ -2746,10 +2754,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C58" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D58">
         <v>2096294</v>
@@ -2772,10 +2780,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C59" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D59">
         <v>2614125</v>
@@ -2798,10 +2806,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D60">
         <v>2965859</v>
@@ -2824,10 +2832,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D61">
         <v>200</v>
@@ -2850,10 +2858,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D62">
         <v>1899859</v>
@@ -2876,10 +2884,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C63" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D63">
         <v>806998</v>
@@ -2928,10 +2936,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D65">
         <v>1328565</v>
@@ -2946,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
@@ -2954,10 +2962,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D66">
         <v>1274438</v>
@@ -2980,10 +2988,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D67">
         <v>1382913</v>
@@ -3006,10 +3014,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C68" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D68">
         <v>571725</v>
@@ -3024,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="H68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
@@ -3032,10 +3040,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D69">
         <v>1659000</v>
@@ -3050,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
@@ -3058,10 +3066,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C70" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D70">
         <v>2978514</v>
@@ -3076,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="H70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
@@ -3084,10 +3092,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D71">
         <v>750002</v>
@@ -3102,7 +3110,7 @@
         <v>1</v>
       </c>
       <c r="H71" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
@@ -3110,10 +3118,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C72" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D72">
         <v>20</v>
@@ -3128,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
@@ -3136,10 +3144,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C73" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D73">
         <v>1125002</v>
@@ -3154,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
@@ -3162,10 +3170,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D74">
         <v>1125002</v>
@@ -3180,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
@@ -3188,10 +3196,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C75" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D75">
         <v>219975</v>
@@ -3206,7 +3214,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
@@ -3214,10 +3222,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C76" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D76">
         <v>439950</v>
@@ -3232,7 +3240,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
@@ -3240,10 +3248,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D77">
         <v>1125002</v>
@@ -3258,7 +3266,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
@@ -3266,10 +3274,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D78">
         <v>3168678</v>
@@ -3292,10 +3300,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D79">
         <v>3312107</v>
@@ -3318,10 +3326,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D80">
         <v>2191826</v>
@@ -3344,10 +3352,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D81">
         <v>106790</v>
@@ -3370,10 +3378,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D82">
         <v>9161612.4399999995</v>
@@ -3396,10 +3404,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C83" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D83">
         <v>1337291</v>
@@ -3422,10 +3430,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D84">
         <v>1892374</v>
@@ -3451,7 +3459,7 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D85">
         <v>4246864</v>
@@ -3477,7 +3485,7 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D86">
         <v>1421683</v>
@@ -3503,7 +3511,7 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D87">
         <v>1413014</v>
@@ -3529,7 +3537,7 @@
         <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D88">
         <v>4217634</v>
@@ -3552,10 +3560,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D89">
         <v>3691</v>
@@ -3578,10 +3586,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D90">
         <v>3313737</v>
@@ -3604,10 +3612,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D91">
         <v>1301496</v>
@@ -3630,10 +3638,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D92">
         <v>2826663</v>
@@ -3656,10 +3664,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D93">
         <v>225760</v>
@@ -3682,10 +3690,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D94">
         <v>2978514</v>
@@ -3700,7 +3708,7 @@
         <v>1</v>
       </c>
       <c r="H94" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
@@ -3708,10 +3716,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D95">
         <v>4189059</v>
@@ -3734,10 +3742,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D96">
         <v>2884770</v>
@@ -3760,10 +3768,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D97">
         <v>3013826</v>
@@ -3786,10 +3794,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D98">
         <v>3137820</v>
@@ -3812,10 +3820,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C99" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D99">
         <v>3602167</v>
@@ -3838,10 +3846,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D100">
         <v>3203311</v>
@@ -3864,10 +3872,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D101">
         <v>1865061</v>
@@ -3890,10 +3898,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C102" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D102">
         <v>3417933.35</v>
@@ -3916,10 +3924,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D103">
         <v>1214514</v>
@@ -3942,10 +3950,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
+        <v>54</v>
+      </c>
+      <c r="C104" t="s">
         <v>56</v>
-      </c>
-      <c r="C104" t="s">
-        <v>58</v>
       </c>
       <c r="D104">
         <v>2642304</v>
@@ -3968,10 +3976,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D105">
         <v>1926663</v>
@@ -3994,10 +4002,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C106" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D106">
         <v>3417933.35</v>
@@ -4020,10 +4028,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C107" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D107">
         <v>227302</v>
@@ -4046,10 +4054,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D108">
         <v>2497682</v>
@@ -4072,10 +4080,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D109">
         <v>3730175</v>
@@ -4101,7 +4109,7 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D110">
         <v>2358691</v>
@@ -4124,10 +4132,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D111">
         <v>1221854</v>
@@ -4150,10 +4158,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D112">
         <v>2642304</v>
@@ -4176,10 +4184,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C113" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D113">
         <v>2466104</v>
@@ -4202,10 +4210,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C114" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D114">
         <v>967840</v>
@@ -4228,10 +4236,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C115" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D115">
         <v>1013325</v>
@@ -4246,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
@@ -4254,10 +4262,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D116">
         <v>3268125</v>
@@ -4272,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
@@ -4280,10 +4288,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C117" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D117">
         <v>2978514</v>
@@ -4298,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
@@ -4309,7 +4317,7 @@
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D118">
         <v>4193759</v>
@@ -4335,7 +4343,7 @@
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D119">
         <v>2286947</v>
@@ -4361,7 +4369,7 @@
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D120">
         <v>1858691</v>
@@ -4384,10 +4392,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C121" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D121">
         <v>3086984</v>
@@ -4410,10 +4418,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C122" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D122">
         <v>1342310</v>
@@ -4436,10 +4444,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C123" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D123">
         <v>1312590</v>
@@ -4462,10 +4470,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D124">
         <v>1991723</v>
@@ -4488,10 +4496,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C125" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D125">
         <v>3104252</v>
@@ -4514,10 +4522,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C126" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D126">
         <v>3104252</v>
@@ -4540,10 +4548,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C127" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D127">
         <v>3080411</v>
@@ -4566,10 +4574,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C128" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D128">
         <v>1119998</v>
@@ -4584,7 +4592,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
@@ -4592,10 +4600,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C129" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D129">
         <v>1747200</v>
@@ -4610,7 +4618,7 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
@@ -4618,10 +4626,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C130" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D130">
         <v>2885832</v>
@@ -4636,7 +4644,7 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
@@ -4644,10 +4652,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C131" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D131">
         <v>2867718</v>
@@ -4662,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
@@ -4670,10 +4678,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C132" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D132">
         <v>4095</v>
@@ -4688,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
@@ -4696,10 +4704,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C133" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D133">
         <v>899859</v>
@@ -4725,7 +4733,7 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D134">
         <v>2746864</v>
@@ -4748,10 +4756,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C135" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D135">
         <v>113325</v>
@@ -4766,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
@@ -4774,10 +4782,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D136">
         <v>8342</v>
@@ -4803,7 +4811,7 @@
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D137">
         <v>3289186</v>
@@ -4829,7 +4837,7 @@
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D138">
         <v>3960807</v>
@@ -4852,10 +4860,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C139" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D139">
         <v>13320</v>
@@ -4878,10 +4886,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C140" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D140">
         <v>3330107</v>
@@ -4904,10 +4912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C141" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D141">
         <v>2878397</v>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E0F10EE-F2DE-944C-9917-17B19E355369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512A767-F7EE-BB48-8F02-BBEB64435297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67813D4E-E05E-934C-89DB-5B29DB79C298}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{67813D4E-E05E-934C-89DB-5B29DB79C298}"/>
   </bookViews>
   <sheets>
-    <sheet name="final (1)" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/final.xlsx
+++ b/final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mridul/Desktop/EXTRA/netaji-oil-depot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512A767-F7EE-BB48-8F02-BBEB64435297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5457788B-390E-EE4D-8C71-97FF690762A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" xr2:uid="{67813D4E-E05E-934C-89DB-5B29DB79C298}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{356E19A4-CA50-BC4A-A192-630CD0BD8383}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="141">
   <si>
     <t>ID</t>
   </si>
@@ -310,6 +310,9 @@
     <t>AKASH AGRO</t>
   </si>
   <si>
+    <t>TARU TRADE ASSOCIATE</t>
+  </si>
+  <si>
     <t>MAHAVEER OIL</t>
   </si>
   <si>
@@ -397,13 +400,49 @@
     <t>SRI SHYAM TRADERS</t>
   </si>
   <si>
-    <t>TARU TRADE ASSOCIATE</t>
-  </si>
-  <si>
-    <t>TARU TRADE ASSOCIATE </t>
-  </si>
-  <si>
-    <t>DALAL KANTILAL &amp; CO.</t>
+    <t>G ONE AGRO</t>
+  </si>
+  <si>
+    <t>MAHESH OIL INDUSTRIES</t>
+  </si>
+  <si>
+    <t>NAROTTAMJI</t>
+  </si>
+  <si>
+    <t>SRI DURGA OIL TRADERS</t>
+  </si>
+  <si>
+    <t>SHREE MARUTI ENT</t>
+  </si>
+  <si>
+    <t>RAJESH JHAWAR</t>
+  </si>
+  <si>
+    <t>KAMLA ENTERPRISE</t>
+  </si>
+  <si>
+    <t>KUMAR SNACKS</t>
+  </si>
+  <si>
+    <t>YOGESH AGARWAL</t>
+  </si>
+  <si>
+    <t>BISHWAMBHAR DAYAL RAMSWARUP</t>
+  </si>
+  <si>
+    <t>PAPIYA TRADERS</t>
+  </si>
+  <si>
+    <t>VINOD KR AGARWAL</t>
+  </si>
+  <si>
+    <t>MA GANDHEWARI TRADING</t>
+  </si>
+  <si>
+    <t>SUBAL KR KUNDU &amp; BROTHER</t>
+  </si>
+  <si>
+    <t>DALAL KANTILAL &amp; CO.</t>
   </si>
 </sst>
 </file>
@@ -1264,11 +1303,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638565D9-6C2B-5744-8B9B-E8474858D82C}">
-  <dimension ref="A1:H141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C793A2-D663-7E45-88E5-D840F166E6C3}">
+  <dimension ref="A1:H163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -1564,7 +1603,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -1590,7 +1629,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -1694,7 +1733,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>26</v>
@@ -1720,7 +1759,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="C18" t="s">
         <v>27</v>
@@ -2353,7 +2392,7 @@
         <v>1155</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="s">
         <v>38</v>
@@ -2613,7 +2652,7 @@
         <v>1152</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="s">
         <v>38</v>
@@ -2795,7 +2834,7 @@
         <v>3812</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="s">
         <v>10</v>
@@ -2821,7 +2860,7 @@
         <v>3816</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="s">
         <v>10</v>
@@ -2847,7 +2886,7 @@
         <v>2637</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="s">
         <v>15</v>
@@ -2951,7 +2990,7 @@
         <v>1159</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" t="s">
         <v>38</v>
@@ -3003,7 +3042,7 @@
         <v>2767</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>15</v>
@@ -3419,7 +3458,7 @@
         <v>2802</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H83" t="s">
         <v>15</v>
@@ -3560,10 +3599,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D89">
         <v>3691</v>
@@ -3589,7 +3628,7 @@
         <v>69</v>
       </c>
       <c r="C90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D90">
         <v>3313737</v>
@@ -3615,7 +3654,7 @@
         <v>69</v>
       </c>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D91">
         <v>1301496</v>
@@ -3627,7 +3666,7 @@
         <v>2823</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91" t="s">
         <v>15</v>
@@ -3641,7 +3680,7 @@
         <v>69</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D92">
         <v>2826663</v>
@@ -3664,10 +3703,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C93" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D93">
         <v>225760</v>
@@ -3719,7 +3758,7 @@
         <v>23</v>
       </c>
       <c r="C95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D95">
         <v>4189059</v>
@@ -3745,7 +3784,7 @@
         <v>64</v>
       </c>
       <c r="C96" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D96">
         <v>2884770</v>
@@ -3771,7 +3810,7 @@
         <v>64</v>
       </c>
       <c r="C97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D97">
         <v>3013826</v>
@@ -3797,7 +3836,7 @@
         <v>64</v>
       </c>
       <c r="C98" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D98">
         <v>3137820</v>
@@ -3809,7 +3848,7 @@
         <v>2830</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="s">
         <v>15</v>
@@ -3823,7 +3862,7 @@
         <v>64</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D99">
         <v>3602167</v>
@@ -3835,7 +3874,7 @@
         <v>2831</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99" t="s">
         <v>15</v>
@@ -3849,7 +3888,7 @@
         <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D100">
         <v>3203311</v>
@@ -3861,7 +3900,7 @@
         <v>3903</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="s">
         <v>10</v>
@@ -3875,7 +3914,7 @@
         <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D101">
         <v>1865061</v>
@@ -3927,7 +3966,7 @@
         <v>40</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D103">
         <v>1214514</v>
@@ -3979,7 +4018,7 @@
         <v>69</v>
       </c>
       <c r="C105" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D105">
         <v>1926663</v>
@@ -4057,7 +4096,7 @@
         <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D108">
         <v>2497682</v>
@@ -4095,7 +4134,7 @@
         <v>3839</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H109" t="s">
         <v>10</v>
@@ -4109,7 +4148,7 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D110">
         <v>2358691</v>
@@ -4135,7 +4174,7 @@
         <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D111">
         <v>1221854</v>
@@ -4161,7 +4200,7 @@
         <v>54</v>
       </c>
       <c r="C112" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D112">
         <v>2642304</v>
@@ -4187,7 +4226,7 @@
         <v>69</v>
       </c>
       <c r="C113" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D113">
         <v>2466104</v>
@@ -4213,7 +4252,7 @@
         <v>69</v>
       </c>
       <c r="C114" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D114">
         <v>967840</v>
@@ -4265,7 +4304,7 @@
         <v>69</v>
       </c>
       <c r="C116" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D116">
         <v>3268125</v>
@@ -4317,7 +4356,7 @@
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D118">
         <v>4193759</v>
@@ -4343,7 +4382,7 @@
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D119">
         <v>2286947</v>
@@ -4369,7 +4408,7 @@
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D120">
         <v>1858691</v>
@@ -4395,7 +4434,7 @@
         <v>40</v>
       </c>
       <c r="C121" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D121">
         <v>3086984</v>
@@ -4421,7 +4460,7 @@
         <v>54</v>
       </c>
       <c r="C122" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D122">
         <v>1342310</v>
@@ -4499,7 +4538,7 @@
         <v>64</v>
       </c>
       <c r="C125" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D125">
         <v>3104252</v>
@@ -4525,7 +4564,7 @@
         <v>64</v>
       </c>
       <c r="C126" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D126">
         <v>3104252</v>
@@ -4537,7 +4576,7 @@
         <v>2847</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" t="s">
         <v>15</v>
@@ -4551,7 +4590,7 @@
         <v>64</v>
       </c>
       <c r="C127" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D127">
         <v>3080411</v>
@@ -4563,7 +4602,7 @@
         <v>2846</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>15</v>
@@ -4577,7 +4616,7 @@
         <v>45</v>
       </c>
       <c r="C128" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D128">
         <v>1119998</v>
@@ -4603,7 +4642,7 @@
         <v>62</v>
       </c>
       <c r="C129" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D129">
         <v>1747200</v>
@@ -4629,7 +4668,7 @@
         <v>62</v>
       </c>
       <c r="C130" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D130">
         <v>2885832</v>
@@ -4655,7 +4694,7 @@
         <v>64</v>
       </c>
       <c r="C131" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D131">
         <v>2867718</v>
@@ -4667,7 +4706,7 @@
         <v>1170</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" t="s">
         <v>38</v>
@@ -4681,7 +4720,7 @@
         <v>69</v>
       </c>
       <c r="C132" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D132">
         <v>4095</v>
@@ -4707,7 +4746,7 @@
         <v>62</v>
       </c>
       <c r="C133" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D133">
         <v>899859</v>
@@ -4719,7 +4758,7 @@
         <v>2626</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" t="s">
         <v>15</v>
@@ -4733,7 +4772,7 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D134">
         <v>2746864</v>
@@ -4745,7 +4784,7 @@
         <v>2796</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" t="s">
         <v>15</v>
@@ -4785,7 +4824,7 @@
         <v>35</v>
       </c>
       <c r="C136" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D136">
         <v>8342</v>
@@ -4811,7 +4850,7 @@
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D137">
         <v>3289186</v>
@@ -4837,7 +4876,7 @@
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D138">
         <v>3960807</v>
@@ -4863,7 +4902,7 @@
         <v>69</v>
       </c>
       <c r="C139" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D139">
         <v>13320</v>
@@ -4875,7 +4914,7 @@
         <v>2860</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="s">
         <v>15</v>
@@ -4889,7 +4928,7 @@
         <v>64</v>
       </c>
       <c r="C140" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D140">
         <v>3330107</v>
@@ -4915,7 +4954,7 @@
         <v>64</v>
       </c>
       <c r="C141" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D141">
         <v>2878397</v>
@@ -4931,6 +4970,578 @@
       </c>
       <c r="H141" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>126</v>
+      </c>
+      <c r="D142">
+        <v>3127320</v>
+      </c>
+      <c r="E142" s="1">
+        <v>45654</v>
+      </c>
+      <c r="F142">
+        <v>4082</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>78</v>
+      </c>
+      <c r="C143" t="s">
+        <v>127</v>
+      </c>
+      <c r="D143">
+        <v>29684278</v>
+      </c>
+      <c r="E143" s="1">
+        <v>45654</v>
+      </c>
+      <c r="F143">
+        <v>4076</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>30</v>
+      </c>
+      <c r="C144" t="s">
+        <v>105</v>
+      </c>
+      <c r="D144">
+        <v>2496585</v>
+      </c>
+      <c r="E144" s="1">
+        <v>45644</v>
+      </c>
+      <c r="F144">
+        <v>3960</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>30</v>
+      </c>
+      <c r="C145" t="s">
+        <v>105</v>
+      </c>
+      <c r="D145">
+        <v>2706188</v>
+      </c>
+      <c r="E145" s="1">
+        <v>45644</v>
+      </c>
+      <c r="F145">
+        <v>3966</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" t="s">
+        <v>105</v>
+      </c>
+      <c r="D146">
+        <v>2063726</v>
+      </c>
+      <c r="E146" s="1">
+        <v>45644</v>
+      </c>
+      <c r="F146">
+        <v>3969</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" t="s">
+        <v>105</v>
+      </c>
+      <c r="D147">
+        <v>2506698</v>
+      </c>
+      <c r="E147" s="1">
+        <v>45645</v>
+      </c>
+      <c r="F147">
+        <v>3985</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" t="s">
+        <v>75</v>
+      </c>
+      <c r="D148">
+        <v>1082851</v>
+      </c>
+      <c r="E148" s="1">
+        <v>45637</v>
+      </c>
+      <c r="F148">
+        <v>3867</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>30</v>
+      </c>
+      <c r="C149" t="s">
+        <v>75</v>
+      </c>
+      <c r="D149">
+        <v>1963638</v>
+      </c>
+      <c r="E149" s="1">
+        <v>45637</v>
+      </c>
+      <c r="F149">
+        <v>3868</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>30</v>
+      </c>
+      <c r="C150" t="s">
+        <v>75</v>
+      </c>
+      <c r="D150">
+        <v>3759480</v>
+      </c>
+      <c r="E150" s="1">
+        <v>45639</v>
+      </c>
+      <c r="F150">
+        <v>3893</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>128</v>
+      </c>
+      <c r="C151" t="s">
+        <v>129</v>
+      </c>
+      <c r="D151">
+        <v>1334408</v>
+      </c>
+      <c r="E151" s="1">
+        <v>45649</v>
+      </c>
+      <c r="F151">
+        <v>2843</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" t="s">
+        <v>130</v>
+      </c>
+      <c r="D152">
+        <v>1322265</v>
+      </c>
+      <c r="E152" s="1">
+        <v>45652</v>
+      </c>
+      <c r="F152">
+        <v>2866</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>131</v>
+      </c>
+      <c r="C153" t="s">
+        <v>132</v>
+      </c>
+      <c r="D153">
+        <v>1039290</v>
+      </c>
+      <c r="E153" s="1">
+        <v>45652</v>
+      </c>
+      <c r="F153">
+        <v>2867</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>40</v>
+      </c>
+      <c r="C154" t="s">
+        <v>113</v>
+      </c>
+      <c r="D154">
+        <v>3479144</v>
+      </c>
+      <c r="E154" s="1">
+        <v>45653</v>
+      </c>
+      <c r="F154">
+        <v>2874</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>40</v>
+      </c>
+      <c r="C155" t="s">
+        <v>92</v>
+      </c>
+      <c r="D155">
+        <v>1347255</v>
+      </c>
+      <c r="E155" s="1">
+        <v>45650</v>
+      </c>
+      <c r="F155">
+        <v>2853</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>64</v>
+      </c>
+      <c r="C156" t="s">
+        <v>133</v>
+      </c>
+      <c r="D156">
+        <v>3791861</v>
+      </c>
+      <c r="E156" s="1">
+        <v>45653</v>
+      </c>
+      <c r="F156">
+        <v>2870</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" t="s">
+        <v>135</v>
+      </c>
+      <c r="D157">
+        <v>600779</v>
+      </c>
+      <c r="E157" s="1">
+        <v>45647</v>
+      </c>
+      <c r="F157">
+        <v>1165</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>45</v>
+      </c>
+      <c r="C158" t="s">
+        <v>136</v>
+      </c>
+      <c r="D158">
+        <v>1551375</v>
+      </c>
+      <c r="E158" s="1">
+        <v>45653</v>
+      </c>
+      <c r="F158">
+        <v>1179</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>48</v>
+      </c>
+      <c r="C159" t="s">
+        <v>137</v>
+      </c>
+      <c r="D159">
+        <v>1558463</v>
+      </c>
+      <c r="E159" s="1">
+        <v>45652</v>
+      </c>
+      <c r="F159">
+        <v>1173</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>62</v>
+      </c>
+      <c r="C160" t="s">
+        <v>116</v>
+      </c>
+      <c r="D160">
+        <v>1747200</v>
+      </c>
+      <c r="E160" s="1">
+        <v>45650</v>
+      </c>
+      <c r="F160">
+        <v>1171</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>62</v>
+      </c>
+      <c r="C161" t="s">
+        <v>138</v>
+      </c>
+      <c r="D161">
+        <v>1758960</v>
+      </c>
+      <c r="E161" s="1">
+        <v>45652</v>
+      </c>
+      <c r="F161">
+        <v>1175</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>64</v>
+      </c>
+      <c r="C162" t="s">
+        <v>139</v>
+      </c>
+      <c r="D162">
+        <v>2000000</v>
+      </c>
+      <c r="E162" s="1">
+        <v>45649</v>
+      </c>
+      <c r="F162">
+        <v>1170</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>69</v>
+      </c>
+      <c r="C163" t="s">
+        <v>111</v>
+      </c>
+      <c r="D163">
+        <v>3611504</v>
+      </c>
+      <c r="E163" s="1">
+        <v>45652</v>
+      </c>
+      <c r="F163">
+        <v>1178</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
